--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -659,7 +659,7 @@
         <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
         <v>1.13</v>
@@ -710,16 +710,16 @@
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
@@ -1928,10 +1928,10 @@
         <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
         <v>1.22</v>
@@ -2999,94 +2999,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.14</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N22" t="n">
         <v>1.44</v>
       </c>
       <c r="O22" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="R22" t="n">
         <v>1.42</v>
       </c>
       <c r="S22" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="U22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V22" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="W22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD22" t="n">
         <v>150</v>
       </c>
       <c r="AE22" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -3730,9 +3730,15 @@
           <t>FK Liepaja</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.25</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -3743,23 +3749,57 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3793,51 +3833,51 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P29" t="n">
         <v>1.57</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="U29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="V29" t="n">
         <v>9.5</v>
       </c>
       <c r="W29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -3846,35 +3886,35 @@
         <v>50</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA29" t="n">
         <v>6.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC29" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -4945,13 +4985,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="J40" t="n">
         <v>1.01</v>
@@ -4978,58 +5018,58 @@
         <v>5.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T40" t="n">
+        <v>26</v>
+      </c>
+      <c r="U40" t="n">
         <v>29</v>
       </c>
-      <c r="U40" t="n">
-        <v>34</v>
-      </c>
       <c r="V40" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X40" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y40" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="n">
         <v>34</v>
       </c>
       <c r="AA40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD40" t="n">
         <v>51</v>
       </c>
       <c r="AE40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF40" t="n">
         <v>19</v>
       </c>
-      <c r="AF40" t="n">
-        <v>15</v>
-      </c>
       <c r="AG40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ40" t="n">
         <v>15</v>
@@ -5677,13 +5717,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J46" t="n">
         <v>1.05</v>
@@ -5737,7 +5777,7 @@
         <v>11</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
         <v>15</v>
@@ -5746,7 +5786,7 @@
         <v>51</v>
       </c>
       <c r="AD46" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE46" t="n">
         <v>11</v>
@@ -5921,66 +5961,70 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H48" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I48" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>7.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
       <c r="L48" t="n">
         <v>1.12</v>
       </c>
       <c r="M48" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="O48" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="P48" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T48" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U48" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V48" t="n">
         <v>8.75</v>
       </c>
       <c r="W48" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X48" t="n">
         <v>10</v>
       </c>
       <c r="Y48" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC48" t="n">
         <v>55</v>
@@ -5989,7 +6033,7 @@
         <v>300</v>
       </c>
       <c r="AE48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF48" t="n">
         <v>55</v>
@@ -6408,16 +6452,16 @@
         <v>1.95</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J52" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
         <v>1.44</v>
@@ -6426,25 +6470,25 @@
         <v>2.63</v>
       </c>
       <c r="N52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U52" t="n">
         <v>8.5</v>
@@ -6459,19 +6503,19 @@
         <v>19</v>
       </c>
       <c r="Y52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="n">
@@ -6487,7 +6531,7 @@
         <v>41</v>
       </c>
       <c r="AI52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ52" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -656,22 +656,22 @@
         <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P2" t="n">
         <v>1.22</v>
@@ -898,10 +898,10 @@
         <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.53</v>
@@ -1502,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1514,10 +1514,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
@@ -2041,13 +2041,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
         <v>23</v>
@@ -2649,33 +2649,33 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O19" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V19" t="n">
         <v>13.5</v>
@@ -2687,40 +2687,40 @@
         <v>35</v>
       </c>
       <c r="Y19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z19" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI19" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="20">
@@ -4067,13 +4067,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4100,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S31" t="n">
         <v>2.1</v>
@@ -4115,7 +4115,7 @@
         <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X31" t="n">
         <v>19</v>
@@ -4124,7 +4124,7 @@
         <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>6</v>
@@ -4145,16 +4145,16 @@
         <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -4225,7 +4225,7 @@
         <v>2.25</v>
       </c>
       <c r="S32" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T32" t="n">
         <v>8</v>
@@ -4344,7 +4344,7 @@
         <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
@@ -4466,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S34" t="n">
         <v>2.1</v>
@@ -4588,7 +4588,7 @@
         <v>3.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
         <v>2.1</v>
@@ -4710,10 +4710,10 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T36" t="n">
         <v>8.5</v>
@@ -5351,13 +5351,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5411,10 +5411,10 @@
         <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
         <v>41</v>
@@ -5961,13 +5961,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H48" t="n">
         <v>5.1</v>
       </c>
       <c r="I48" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="J48" t="n">
         <v>1.02</v>
@@ -5982,10 +5982,10 @@
         <v>5.3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="O48" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="P48" t="n">
         <v>1.23</v>
@@ -6003,7 +6003,7 @@
         <v>10.75</v>
       </c>
       <c r="U48" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V48" t="n">
         <v>8.75</v>
@@ -6012,10 +6012,10 @@
         <v>10</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z48" t="n">
         <v>10</v>
@@ -6033,22 +6033,22 @@
         <v>300</v>
       </c>
       <c r="AE48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF48" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH48" t="n">
         <v>150</v>
       </c>
       <c r="AI48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -1011,46 +1011,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
         <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6.5</v>
       </c>
       <c r="U5" t="n">
         <v>11</v>
@@ -1062,13 +1062,13 @@
         <v>26</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA5" t="n">
         <v>5.5</v>
@@ -1077,7 +1077,7 @@
         <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
@@ -1087,16 +1087,16 @@
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1622,10 +1622,10 @@
         <v>1.55</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
         <v>1.03</v>
@@ -2782,10 +2782,10 @@
         <v>2.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R20" t="n">
         <v>1.42</v>
@@ -2794,22 +2794,22 @@
         <v>2.67</v>
       </c>
       <c r="T20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W20" t="n">
+        <v>30</v>
+      </c>
+      <c r="X20" t="n">
         <v>17.5</v>
       </c>
-      <c r="V20" t="n">
-        <v>10</v>
-      </c>
-      <c r="W20" t="n">
-        <v>32</v>
-      </c>
-      <c r="X20" t="n">
-        <v>18</v>
-      </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
         <v>9.5</v>
@@ -2827,19 +2827,19 @@
         <v>150</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>19</v>
@@ -3127,19 +3127,19 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N23" t="n">
         <v>2.35</v>
@@ -3154,10 +3154,10 @@
         <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
         <v>6</v>
@@ -3208,7 +3208,7 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -3243,19 +3243,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3276,16 +3276,16 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V24" t="n">
         <v>9</v>
@@ -3297,10 +3297,10 @@
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3309,10 +3309,10 @@
         <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE24" t="n">
         <v>10</v>
@@ -3327,7 +3327,7 @@
         <v>41</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3377,7 +3377,7 @@
         <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L25" t="n">
         <v>1.13</v>
@@ -3496,10 +3496,10 @@
         <v>1.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L26" t="n">
         <v>1.11</v>
@@ -3508,10 +3508,10 @@
         <v>6.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P26" t="n">
         <v>1.2</v>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I28" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3750,13 +3750,13 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U28" t="n">
         <v>5.9</v>
       </c>
       <c r="V28" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="W28" t="n">
         <v>6.8</v>
@@ -3768,13 +3768,13 @@
         <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC28" t="n">
         <v>65</v>
@@ -3786,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG28" t="n">
         <v>21</v>
@@ -4100,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
         <v>2.1</v>
@@ -4225,7 +4225,7 @@
         <v>2.25</v>
       </c>
       <c r="S32" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T32" t="n">
         <v>8</v>
@@ -4344,7 +4344,7 @@
         <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
@@ -4466,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
         <v>2.1</v>
@@ -4588,7 +4588,7 @@
         <v>3.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
         <v>2.1</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
@@ -4692,16 +4692,16 @@
         <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4710,10 +4710,10 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
         <v>8.5</v>
@@ -4722,7 +4722,7 @@
         <v>13</v>
       </c>
       <c r="V36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
         <v>29</v>
@@ -4737,7 +4737,7 @@
         <v>10</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB36" t="n">
         <v>15</v>
@@ -4761,7 +4761,7 @@
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>29</v>
@@ -5366,22 +5366,22 @@
         <v>15</v>
       </c>
       <c r="L43" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N43" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O43" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P43" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R43" t="n">
         <v>1.67</v>
@@ -5390,10 +5390,10 @@
         <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V43" t="n">
         <v>8.5</v>
@@ -5435,10 +5435,10 @@
         <v>51</v>
       </c>
       <c r="AI43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -5961,13 +5961,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H48" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I48" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="J48" t="n">
         <v>1.02</v>
@@ -5982,16 +5982,16 @@
         <v>5.3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="O48" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="P48" t="n">
         <v>1.23</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="R48" t="n">
         <v>1.62</v>
@@ -6009,10 +6009,10 @@
         <v>8.75</v>
       </c>
       <c r="W48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X48" t="n">
         <v>10</v>
-      </c>
-      <c r="X48" t="n">
-        <v>10.25</v>
       </c>
       <c r="Y48" t="n">
         <v>19.5</v>
@@ -6021,7 +6021,7 @@
         <v>10</v>
       </c>
       <c r="AA48" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB48" t="n">
         <v>16.5</v>
@@ -6033,13 +6033,13 @@
         <v>300</v>
       </c>
       <c r="AE48" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH48" t="n">
         <v>150</v>
@@ -6048,7 +6048,7 @@
         <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -6205,46 +6205,46 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H50" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="I50" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="J50" t="n">
         <v>1.03</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L50" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="N50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O50" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="R50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S50" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U50" t="n">
         <v>9</v>
@@ -6253,19 +6253,19 @@
         <v>8.25</v>
       </c>
       <c r="W50" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X50" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y50" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
         <v>14</v>
@@ -6277,22 +6277,22 @@
         <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG50" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -6339,7 +6339,7 @@
         <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -1502,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1836,7 +1836,7 @@
         <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U12" t="n">
         <v>10</v>
@@ -1860,7 +1860,7 @@
         <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>41</v>
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2438,10 +2438,10 @@
         <v>3.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T17" t="n">
         <v>12</v>
@@ -2450,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W17" t="n">
         <v>23</v>
@@ -2492,7 +2492,7 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -2652,7 +2652,7 @@
         <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I19" t="n">
         <v>1.5</v>
@@ -2675,7 +2675,7 @@
         <v>14</v>
       </c>
       <c r="U19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V19" t="n">
         <v>13.5</v>
@@ -2687,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="Y19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
         <v>14.5</v>
@@ -2898,7 +2898,7 @@
         <v>5.3</v>
       </c>
       <c r="N21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O21" t="n">
         <v>2.8</v>
@@ -2916,22 +2916,22 @@
         <v>2.85</v>
       </c>
       <c r="T21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>14</v>
-      </c>
-      <c r="U21" t="n">
-        <v>14.5</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
         <v>10</v>
@@ -2949,10 +2949,10 @@
         <v>120</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -2964,7 +2964,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3380,10 +3380,10 @@
         <v>19</v>
       </c>
       <c r="L25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N25" t="n">
         <v>1.48</v>
@@ -5107,13 +5107,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5140,22 +5140,22 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
         <v>21</v>
@@ -5164,7 +5164,7 @@
         <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
@@ -5176,7 +5176,7 @@
         <v>41</v>
       </c>
       <c r="AD41" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE41" t="n">
         <v>9.5</v>
@@ -5188,13 +5188,13 @@
         <v>10</v>
       </c>
       <c r="AH41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>26</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -6208,16 +6208,16 @@
         <v>1.57</v>
       </c>
       <c r="H50" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I50" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J50" t="n">
         <v>1.03</v>
       </c>
       <c r="K50" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
         <v>1.17</v>
@@ -6232,10 +6232,10 @@
         <v>2.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R50" t="n">
         <v>1.6</v>
@@ -6250,19 +6250,19 @@
         <v>9</v>
       </c>
       <c r="V50" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W50" t="n">
         <v>12.5</v>
       </c>
       <c r="X50" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y50" t="n">
         <v>19.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
         <v>8.5</v>
@@ -6277,7 +6277,7 @@
         <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF50" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -1371,79 +1371,79 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
         <v>2.87</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
         <v>11</v>
       </c>
       <c r="V8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>14</v>
@@ -1455,10 +1455,10 @@
         <v>35</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1493,19 +1493,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1514,10 +1514,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.88</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.93</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
@@ -1526,59 +1526,59 @@
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="n">
         <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1934,10 +1934,10 @@
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N13" t="n">
         <v>1.8</v>
@@ -2050,10 +2050,10 @@
         <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2420,10 +2420,10 @@
         <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N17" t="n">
         <v>1.53</v>
@@ -2450,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
         <v>23</v>
@@ -2471,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD17" t="n">
         <v>101</v>
@@ -2492,7 +2492,7 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2916,22 +2916,22 @@
         <v>2.85</v>
       </c>
       <c r="T21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
         <v>10</v>
@@ -2949,10 +2949,10 @@
         <v>120</v>
       </c>
       <c r="AE21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -2964,7 +2964,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -3014,34 +3014,34 @@
         <v>9.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N22" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="O22" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="P22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R22" t="n">
         <v>1.42</v>
       </c>
       <c r="S22" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="U22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V22" t="n">
         <v>11.75</v>
@@ -3059,22 +3059,22 @@
         <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD22" t="n">
         <v>150</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
         <v>8.75</v>
@@ -3086,7 +3086,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23">
@@ -3145,7 +3145,7 @@
         <v>2.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
@@ -3252,10 +3252,10 @@
         <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3264,10 +3264,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3380,10 +3380,10 @@
         <v>19</v>
       </c>
       <c r="L25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N25" t="n">
         <v>1.48</v>
@@ -4067,13 +4067,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4109,16 +4109,16 @@
         <v>9</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
@@ -4145,16 +4145,16 @@
         <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4570,16 +4570,16 @@
         <v>13</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P35" t="n">
         <v>1.33</v>
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
@@ -4692,16 +4692,16 @@
         <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O36" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4710,10 +4710,10 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T36" t="n">
         <v>8.5</v>
@@ -4722,7 +4722,7 @@
         <v>13</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W36" t="n">
         <v>29</v>
@@ -4749,7 +4749,7 @@
         <v>251</v>
       </c>
       <c r="AE36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF36" t="n">
         <v>11</v>
@@ -4758,7 +4758,7 @@
         <v>9.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
         <v>19</v>
@@ -5229,13 +5229,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -5262,10 +5262,10 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T42" t="n">
         <v>9</v>
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
@@ -5604,10 +5604,10 @@
         <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L45" t="n">
         <v>1.29</v>
@@ -5616,10 +5616,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P45" t="n">
         <v>1.36</v>
@@ -5628,22 +5628,22 @@
         <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>8</v>
       </c>
       <c r="U45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V45" t="n">
         <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X45" t="n">
         <v>17</v>
@@ -5652,7 +5652,7 @@
         <v>26</v>
       </c>
       <c r="Z45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
         <v>7</v>
@@ -5961,13 +5961,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H48" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I48" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="J48" t="n">
         <v>1.02</v>
@@ -5985,22 +5985,22 @@
         <v>1.39</v>
       </c>
       <c r="O48" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="P48" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T48" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="U48" t="n">
         <v>8.5</v>
@@ -6021,7 +6021,7 @@
         <v>10</v>
       </c>
       <c r="AA48" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB48" t="n">
         <v>16.5</v>
@@ -6033,7 +6033,7 @@
         <v>300</v>
       </c>
       <c r="AE48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF48" t="n">
         <v>55</v>
@@ -6042,10 +6042,10 @@
         <v>22</v>
       </c>
       <c r="AH48" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ48" t="n">
         <v>50</v>
@@ -6449,19 +6449,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
         <v>1.44</v>
@@ -6491,7 +6491,7 @@
         <v>5.5</v>
       </c>
       <c r="U52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V52" t="n">
         <v>9.5</v>
@@ -6522,10 +6522,10 @@
         <v>8.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
         <v>41</v>
@@ -6534,7 +6534,7 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1628,16 +1628,16 @@
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1664,7 +1664,7 @@
         <v>67</v>
       </c>
       <c r="X10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y10" t="n">
         <v>51</v>
@@ -1676,7 +1676,7 @@
         <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>67</v>
@@ -1685,10 +1685,10 @@
         <v>351</v>
       </c>
       <c r="AE10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF10" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7</v>
       </c>
       <c r="AG10" t="n">
         <v>8.5</v>
@@ -2041,19 +2041,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2062,10 +2062,10 @@
         <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O14" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2083,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
         <v>9.5</v>
@@ -2092,19 +2092,19 @@
         <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
@@ -2113,7 +2113,7 @@
         <v>251</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
         <v>15</v>
@@ -2292,13 +2292,13 @@
         <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>3.25</v>
@@ -2310,7 +2310,7 @@
         <v>1.73</v>
       </c>
       <c r="P16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q16" t="n">
         <v>2.75</v>
@@ -2414,13 +2414,13 @@
         <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
         <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M17" t="n">
         <v>5.5</v>
@@ -2432,7 +2432,7 @@
         <v>2.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q17" t="n">
         <v>3.75</v>
@@ -2536,13 +2536,13 @@
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
         <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M18" t="n">
         <v>4.33</v>
@@ -2554,7 +2554,7 @@
         <v>2.15</v>
       </c>
       <c r="P18" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q18" t="n">
         <v>3.4</v>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>3.7</v>
@@ -3011,82 +3011,82 @@
         <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M22" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="N22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.47</v>
       </c>
-      <c r="O22" t="n">
+      <c r="S22" t="n">
         <v>2.52</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.65</v>
-      </c>
       <c r="T22" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="U22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X22" t="n">
         <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB22" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE22" t="n">
         <v>11</v>
       </c>
-      <c r="AC22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23">
@@ -3145,7 +3145,7 @@
         <v>2.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
@@ -3264,10 +3264,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
         <v>4.33</v>
@@ -3377,13 +3377,13 @@
         <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N25" t="n">
         <v>1.48</v>
@@ -3392,10 +3392,10 @@
         <v>2.6</v>
       </c>
       <c r="P25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R25" t="n">
         <v>1.53</v>
@@ -3404,13 +3404,13 @@
         <v>2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U25" t="n">
         <v>29</v>
       </c>
       <c r="V25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>51</v>
@@ -3419,7 +3419,7 @@
         <v>34</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
@@ -3434,7 +3434,7 @@
         <v>41</v>
       </c>
       <c r="AD25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -3449,7 +3449,7 @@
         <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>19</v>
@@ -3487,25 +3487,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N26" t="n">
         <v>1.36</v>
@@ -3538,7 +3538,7 @@
         <v>51</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
@@ -3547,7 +3547,7 @@
         <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB26" t="n">
         <v>13</v>
@@ -3559,7 +3559,7 @@
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
@@ -3568,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>11</v>
@@ -3949,42 +3949,42 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M30" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R30" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T30" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
         <v>12</v>
@@ -3999,25 +3999,25 @@
         <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD30" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -4026,10 +4026,10 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
         <v>32</v>
@@ -4070,10 +4070,10 @@
         <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4106,13 +4106,13 @@
         <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U31" t="n">
         <v>11</v>
       </c>
       <c r="V31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
         <v>21</v>
@@ -4127,10 +4127,10 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
@@ -4151,7 +4151,7 @@
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4210,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O32" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
@@ -4433,13 +4433,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
@@ -4466,22 +4466,22 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
       </c>
       <c r="U34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V34" t="n">
         <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X34" t="n">
         <v>23</v>
@@ -4505,10 +4505,10 @@
         <v>201</v>
       </c>
       <c r="AE34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
         <v>9.5</v>
@@ -4517,7 +4517,7 @@
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
         <v>26</v>
@@ -5250,10 +5250,10 @@
         <v>3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P42" t="n">
         <v>1.36</v>
@@ -5351,13 +5351,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5372,10 +5372,10 @@
         <v>4.33</v>
       </c>
       <c r="N43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O43" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P43" t="n">
         <v>1.3</v>
@@ -5393,7 +5393,7 @@
         <v>8.5</v>
       </c>
       <c r="U43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V43" t="n">
         <v>8.5</v>
@@ -5402,7 +5402,7 @@
         <v>13</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
         <v>21</v>
@@ -5411,10 +5411,10 @@
         <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>41</v>
@@ -5423,10 +5423,10 @@
         <v>151</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG43" t="n">
         <v>15</v>
@@ -5435,10 +5435,10 @@
         <v>51</v>
       </c>
       <c r="AI43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -5616,10 +5616,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O45" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P45" t="n">
         <v>1.36</v>
@@ -5848,10 +5848,10 @@
         <v>3.2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
         <v>1.29</v>
@@ -5961,10 +5961,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H48" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I48" t="n">
         <v>7.2</v>
@@ -5979,19 +5979,19 @@
         <v>1.12</v>
       </c>
       <c r="M48" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O48" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="P48" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="R48" t="n">
         <v>1.65</v>
@@ -6000,7 +6000,7 @@
         <v>2.12</v>
       </c>
       <c r="T48" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U48" t="n">
         <v>8.5</v>
@@ -6018,13 +6018,13 @@
         <v>19.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA48" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB48" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC48" t="n">
         <v>55</v>
@@ -6039,10 +6039,10 @@
         <v>55</v>
       </c>
       <c r="AG48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH48" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI48" t="n">
         <v>65</v>
@@ -6464,10 +6464,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M52" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N52" t="n">
         <v>2.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,10 +898,10 @@
         <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
         <v>1.53</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>1.14</v>
@@ -1050,16 +1050,16 @@
         <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X5" t="n">
         <v>29</v>
@@ -1074,29 +1074,29 @@
         <v>5.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>81</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1146,28 +1146,28 @@
         <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1185,7 +1185,7 @@
         <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="n">
         <v>5.5</v>
@@ -1194,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
@@ -1213,7 +1213,7 @@
         <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1222,7 +1222,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WQHdJMet</t>
+          <t>WE5TT27K</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1232,117 +1232,117 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE C</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Anapolis</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.25</v>
       </c>
-      <c r="O7" t="n">
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.6</v>
-      </c>
       <c r="T7" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="V7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>11.25</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jqra4gV6</t>
+          <t>WhhQYuE6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1352,119 +1352,119 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE C</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Confianca</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.42</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.87</v>
+        <v>1.53</v>
       </c>
       <c r="J8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>2.77</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U8" t="n">
+        <v>29</v>
+      </c>
+      <c r="V8" t="n">
+        <v>19</v>
+      </c>
+      <c r="W8" t="n">
+        <v>67</v>
+      </c>
+      <c r="X8" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>11</v>
       </c>
-      <c r="V8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>25</v>
-      </c>
-      <c r="X8" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>35</v>
-      </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WE5TT27K</t>
+          <t>dYAwzh2k</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1474,117 +1474,119 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>17</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
         <v>6.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AB9" t="n">
         <v>13</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AC9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI9" t="n">
         <v>29</v>
       </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AJ9" t="n">
         <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WhhQYuE6</t>
+          <t>KCusfDgL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1594,119 +1596,119 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.53</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
+        <v>13</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z10" t="n">
         <v>11</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T10" t="n">
-        <v>13</v>
-      </c>
-      <c r="U10" t="n">
-        <v>29</v>
-      </c>
-      <c r="V10" t="n">
-        <v>19</v>
-      </c>
-      <c r="W10" t="n">
-        <v>67</v>
-      </c>
-      <c r="X10" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>8</v>
       </c>
       <c r="AB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
         <v>21</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AH10" t="n">
         <v>67</v>
       </c>
-      <c r="AD10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>231I1ZRi</t>
+          <t>UNQbszAF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1716,59 +1718,119 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BULGARIA - VTORA LIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Botev Plovdiv II</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Montana</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8</v>
+      </c>
+      <c r="U11" t="n">
+        <v>11</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>23</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dYAwzh2k</t>
+          <t>URbOGfNb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1778,119 +1840,117 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O12" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.2</v>
       </c>
       <c r="T12" t="n">
         <v>8.5</v>
       </c>
       <c r="U12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>41</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KCusfDgL</t>
+          <t>rXg4BaoJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1900,98 +1960,98 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
         <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T13" t="n">
-        <v>7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>7</v>
-      </c>
-      <c r="V13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
@@ -2000,7 +2060,7 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
@@ -2012,7 +2072,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UNQbszAF</t>
+          <t>0l0CxQPi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2022,101 +2082,101 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="O14" t="n">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
         <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
         <v>29</v>
       </c>
-      <c r="Z14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE14" t="n">
         <v>13</v>
       </c>
-      <c r="AC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2125,16 +2185,16 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>URbOGfNb</t>
+          <t>pKx2jAM7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2144,117 +2204,119 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U15" t="n">
         <v>7</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T15" t="n">
-        <v>8</v>
-      </c>
-      <c r="U15" t="n">
-        <v>17</v>
-      </c>
       <c r="V15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="n">
         <v>13</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
         <v>41</v>
       </c>
-      <c r="X15" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9</v>
-      </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rXg4BaoJ</t>
+          <t>fagtO8e3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2264,119 +2326,103 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.25</v>
-      </c>
+        <v>1.57</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.57</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>55</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD16" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>7.3</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
-        <v>81</v>
+        <v>10.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>51</v>
+        <v>9.75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0l0CxQPi</t>
+          <t>GlzFBsJr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2386,119 +2432,119 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Akranes</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Hafnarfjordur</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="M17" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="N17" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="O17" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="T17" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="V17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>30</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>9.5</v>
       </c>
-      <c r="W17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17</v>
-      </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD17" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
       </c>
       <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pKx2jAM7</t>
+          <t>x4ON9Lme</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2508,119 +2554,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T18" t="n">
+        <v>14</v>
+      </c>
+      <c r="U18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>21</v>
+      </c>
+      <c r="X18" t="n">
         <v>13</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>7</v>
-      </c>
-      <c r="V18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG18" t="n">
         <v>12</v>
       </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
       <c r="AH18" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fagtO8e3</t>
+          <t>p6qqH3eL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2630,103 +2676,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.5</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1.55</v>
-      </c>
       <c r="O19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.52</v>
+      </c>
       <c r="T19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>22</v>
+      </c>
+      <c r="V19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>45</v>
+      </c>
+      <c r="X19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>14</v>
       </c>
-      <c r="U19" t="n">
-        <v>25</v>
-      </c>
-      <c r="V19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>65</v>
-      </c>
-      <c r="X19" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GlzFBsJr</t>
+          <t>ll9bhpL5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2736,119 +2798,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Akranes</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hafnarfjordur</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.42</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>15</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE20" t="n">
         <v>9.5</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="T20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W20" t="n">
-        <v>30</v>
-      </c>
-      <c r="X20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF20" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x4ON9Lme</t>
+          <t>pG27jOkI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2858,119 +2920,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>1.38</v>
+        <v>2.15</v>
       </c>
       <c r="O21" t="n">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>2.85</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
       </c>
       <c r="W21" t="n">
+        <v>15</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF21" t="n">
         <v>21</v>
       </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>25</v>
-      </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>p6qqH3eL</t>
+          <t>OOdWM2lQ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2980,119 +3042,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I22" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="L22" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M22" t="n">
-        <v>4.55</v>
+        <v>5.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O22" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P22" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V22" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>8.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ll9bhpL5</t>
+          <t>r9w3HtCm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3102,119 +3164,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K23" t="n">
+        <v>23</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q23" t="n">
         <v>4.33</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="R23" t="n">
         <v>1.44</v>
       </c>
-      <c r="M23" t="n">
+      <c r="S23" t="n">
         <v>2.63</v>
       </c>
-      <c r="N23" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="U23" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="V23" t="n">
+        <v>15</v>
+      </c>
+      <c r="W23" t="n">
+        <v>51</v>
+      </c>
+      <c r="X23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG23" t="n">
         <v>9</v>
       </c>
-      <c r="W23" t="n">
-        <v>15</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pG27jOkI</t>
+          <t>MyUeBnq2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3224,56 +3286,56 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
         <v>2</v>
@@ -3285,25 +3347,25 @@
         <v>6</v>
       </c>
       <c r="U24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
         <v>34</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -3315,19 +3377,19 @@
         <v>451</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>41</v>
       </c>
       <c r="AI24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3336,7 +3398,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OOdWM2lQ</t>
+          <t>hfarF31C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3346,241 +3408,221 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>1.26</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG25" t="n">
         <v>21</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T25" t="n">
-        <v>19</v>
-      </c>
-      <c r="U25" t="n">
-        <v>29</v>
-      </c>
-      <c r="V25" t="n">
-        <v>15</v>
-      </c>
-      <c r="W25" t="n">
-        <v>51</v>
-      </c>
-      <c r="X25" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>r9w3HtCm</t>
+          <t>UgsiLtKb</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19/05/2025</t>
+          <t>18/05/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.75</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.57</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T26" t="n">
         <v>7</v>
       </c>
-      <c r="N26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T26" t="n">
-        <v>21</v>
-      </c>
       <c r="U26" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="V26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>17</v>
+      </c>
+      <c r="X26" t="n">
         <v>15</v>
-      </c>
-      <c r="W26" t="n">
-        <v>51</v>
-      </c>
-      <c r="X26" t="n">
-        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG26" t="n">
         <v>13</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AH26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI26" t="n">
         <v>34</v>
       </c>
-      <c r="AD26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MyUeBnq2</t>
+          <t>fwfBxHAr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3590,119 +3632,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Binacional</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
         <v>2.1</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T27" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="U27" t="n">
+        <v>11</v>
+      </c>
+      <c r="V27" t="n">
         <v>9</v>
       </c>
-      <c r="V27" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF27" t="n">
         <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hfarF31C</t>
+          <t>GhrKzeue</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3712,99 +3754,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Alianza Huanuco</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="H28" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K28" t="n">
+        <v>17</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T28" t="n">
         <v>8</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>7.2</v>
-      </c>
       <c r="U28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="V28" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="W28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AE28" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AF28" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hryLas8C</t>
+          <t>4fGa01Z1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3814,113 +3876,119 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Guairena</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K29" t="n">
+        <v>13</v>
+      </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.47</v>
+        <v>1.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="R29" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="S29" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="V29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD29" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>201</v>
+      </c>
       <c r="AE29" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YiqTcLxP</t>
+          <t>l2hfM7cT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3930,115 +3998,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Encarnacion FC</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11</v>
+      </c>
       <c r="L30" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="N30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.93</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.7</v>
-      </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.47</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="W30" t="n">
+        <v>41</v>
+      </c>
+      <c r="X30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>26</v>
-      </c>
-      <c r="X30" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fwfBxHAr</t>
+          <t>6wPKxTsA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4048,107 +4120,107 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M31" t="n">
         <v>3.25</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>11</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N31" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="O31" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
+        <v>23</v>
+      </c>
+      <c r="X31" t="n">
         <v>21</v>
       </c>
-      <c r="X31" t="n">
-        <v>17</v>
-      </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF31" t="n">
         <v>13</v>
       </c>
-      <c r="AC31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>17</v>
-      </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -4160,7 +4232,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GhrKzeue</t>
+          <t>2cSEViY8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4170,119 +4242,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Alianza Huanuco</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.18</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>1.57</v>
+        <v>2.03</v>
       </c>
       <c r="O32" t="n">
-        <v>2.35</v>
+        <v>1.78</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
         <v>34</v>
       </c>
       <c r="Z32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="n">
         <v>15</v>
       </c>
-      <c r="AA32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>29</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4fGa01Z1</t>
+          <t>lfWvFNEi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4292,119 +4364,59 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>RUSSIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Lokomotiv Moscow</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Puszcza</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K33" t="n">
-        <v>13</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W33" t="n">
-        <v>13</v>
-      </c>
-      <c r="X33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>41</v>
-      </c>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>l2hfM7cT</t>
+          <t>lbOhK4gT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4414,119 +4426,59 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>RUSSIA - FNL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Kamaz</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K34" t="n">
-        <v>11</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>10</v>
-      </c>
-      <c r="U34" t="n">
-        <v>17</v>
-      </c>
-      <c r="V34" t="n">
-        <v>11</v>
-      </c>
-      <c r="W34" t="n">
-        <v>34</v>
-      </c>
-      <c r="X34" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>26</v>
-      </c>
+          <t>Alania Vladikavkaz</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6wPKxTsA</t>
+          <t>bDos25Xp</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4536,119 +4488,59 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>RUSSIA - FNL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K35" t="n">
-        <v>13</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U35" t="n">
-        <v>13</v>
-      </c>
-      <c r="V35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W35" t="n">
-        <v>23</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>26</v>
-      </c>
+          <t>Chernomorets Novorossijsk</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2cSEViY8</t>
+          <t>ldaHiLEa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4658,119 +4550,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="J36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K36" t="n">
+        <v>34</v>
+      </c>
+      <c r="L36" t="n">
         <v>1.06</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>10</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N36" t="n">
-        <v>2.03</v>
+        <v>1.22</v>
       </c>
       <c r="O36" t="n">
-        <v>1.78</v>
+        <v>4.2</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="U36" t="n">
+        <v>29</v>
+      </c>
+      <c r="V36" t="n">
         <v>13</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
+        <v>41</v>
+      </c>
+      <c r="X36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="n">
         <v>11</v>
       </c>
-      <c r="W36" t="n">
-        <v>29</v>
-      </c>
-      <c r="X36" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>7</v>
-      </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD36" t="n">
         <v>51</v>
       </c>
-      <c r="AD36" t="n">
-        <v>251</v>
-      </c>
       <c r="AE36" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AF36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG36" t="n">
         <v>11</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>9.5</v>
       </c>
       <c r="AH36" t="n">
         <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lfWvFNEi</t>
+          <t>pA1TvSVF</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4780,59 +4672,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RUSSIA - PREMIER LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lokomotiv Moscow</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CSKA Moscow</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>11</v>
+      </c>
+      <c r="W37" t="n">
+        <v>29</v>
+      </c>
+      <c r="X37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lbOhK4gT</t>
+          <t>bXXHG0Uj</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4842,59 +4794,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RUSSIA - FNL</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Kamaz</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Alania Vladikavkaz</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>13</v>
+      </c>
+      <c r="V38" t="n">
+        <v>10</v>
+      </c>
+      <c r="W38" t="n">
+        <v>26</v>
+      </c>
+      <c r="X38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bDos25Xp</t>
+          <t>COcxyVF5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4904,59 +4916,119 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RUSSIA - FNL</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chernomorets Novorossijsk</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>9</v>
+      </c>
+      <c r="U39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>15</v>
+      </c>
+      <c r="X39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ldaHiLEa</t>
+          <t>8jioZ8pI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4966,119 +5038,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="O40" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="T40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>11</v>
+      </c>
+      <c r="V40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>17</v>
+      </c>
+      <c r="X40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="n">
         <v>26</v>
       </c>
-      <c r="U40" t="n">
+      <c r="AJ40" t="n">
         <v>29</v>
-      </c>
-      <c r="V40" t="n">
-        <v>13</v>
-      </c>
-      <c r="W40" t="n">
-        <v>41</v>
-      </c>
-      <c r="X40" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pA1TvSVF</t>
+          <t>hEs3MV0C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5088,50 +5160,50 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -5140,67 +5212,67 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
+        <v>8</v>
+      </c>
+      <c r="U41" t="n">
         <v>10</v>
       </c>
-      <c r="U41" t="n">
-        <v>15</v>
-      </c>
       <c r="V41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z41" t="n">
         <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AE41" t="n">
         <v>9.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI41" t="n">
         <v>23</v>
       </c>
-      <c r="AI41" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bXXHG0Uj</t>
+          <t>vTlKQiRq</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5215,27 +5287,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -5262,67 +5334,67 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U42" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="W42" t="n">
+        <v>17</v>
+      </c>
+      <c r="X42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y42" t="n">
         <v>26</v>
-      </c>
-      <c r="X42" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>29</v>
       </c>
       <c r="Z42" t="n">
         <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG42" t="n">
         <v>13</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AH42" t="n">
         <v>41</v>
       </c>
-      <c r="AD42" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>26</v>
-      </c>
       <c r="AI42" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COcxyVF5</t>
+          <t>4IfMKUSb</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5337,105 +5409,105 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="n">
+        <v>11</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>8</v>
+      </c>
+      <c r="U43" t="n">
+        <v>11</v>
+      </c>
+      <c r="V43" t="n">
+        <v>9</v>
+      </c>
+      <c r="W43" t="n">
+        <v>21</v>
+      </c>
+      <c r="X43" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB43" t="n">
         <v>15</v>
       </c>
-      <c r="L43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U43" t="n">
-        <v>9</v>
-      </c>
-      <c r="V43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>13</v>
-      </c>
-      <c r="X43" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>13</v>
-      </c>
       <c r="AC43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI43" t="n">
         <v>26</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>34</v>
       </c>
       <c r="AJ43" t="n">
         <v>34</v>
@@ -5444,7 +5516,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8jioZ8pI</t>
+          <t>KO3bt4DD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5454,119 +5526,119 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>7.2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="M44" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="N44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.65</v>
       </c>
-      <c r="O44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S44" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="T44" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U44" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="V44" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W44" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="X44" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>11.25</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD44" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AF44" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH44" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AI44" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hEs3MV0C</t>
+          <t>nB5jrQr1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5576,119 +5648,119 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K45" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P45" t="n">
         <v>1.29</v>
       </c>
-      <c r="M45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="T45" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="U45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="W45" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="X45" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y45" t="n">
         <v>26</v>
       </c>
       <c r="Z45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF45" t="n">
         <v>12</v>
       </c>
-      <c r="AA45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>15</v>
-      </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>vTlKQiRq</t>
+          <t>zXoo475K</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5703,114 +5775,114 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="I46" t="n">
-        <v>3.7</v>
+        <v>4.85</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="M46" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="N46" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="O46" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="P46" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T46" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="U46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V46" t="n">
+        <v>8</v>
+      </c>
+      <c r="W46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA46" t="n">
         <v>8.5</v>
       </c>
-      <c r="W46" t="n">
-        <v>17</v>
-      </c>
-      <c r="X46" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>7</v>
-      </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC46" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD46" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AF46" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AG46" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4IfMKUSb</t>
+          <t>z9ynd50T</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5820,119 +5892,119 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
         <v>2.15</v>
       </c>
-      <c r="H47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.95</v>
-      </c>
       <c r="O47" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="P47" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R47" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T47" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U47" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="V47" t="n">
         <v>9</v>
       </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z47" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AE47" t="n">
         <v>10</v>
       </c>
       <c r="AF47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI47" t="n">
         <v>34</v>
       </c>
-      <c r="AI47" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KO3bt4DD</t>
+          <t>pK44EnGc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5942,715 +6014,233 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.33</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="J48" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L48" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="M48" t="n">
-        <v>5.4</v>
+        <v>2.63</v>
       </c>
       <c r="N48" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="O48" t="n">
-        <v>2.82</v>
+        <v>1.53</v>
       </c>
       <c r="P48" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="Q48" t="n">
-        <v>4.05</v>
+        <v>2.38</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="S48" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="T48" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="U48" t="n">
+        <v>8</v>
+      </c>
+      <c r="V48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>17</v>
+      </c>
+      <c r="X48" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="n">
         <v>8.5</v>
       </c>
-      <c r="V48" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W48" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X48" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>28</v>
-      </c>
       <c r="AF48" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AI48" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>nB5jrQr1</t>
+          <t>lha9K8jJ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>19/05/2025</t>
+          <t>18/05/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J49" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O49" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P49" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q49" t="n">
         <v>3.25</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S49" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V49" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="W49" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE49" t="n">
         <v>9</v>
       </c>
-      <c r="AA49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AF49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG49" t="n">
         <v>8.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>zXoo475K</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Al Wahda</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Al Jazira</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K50" t="n">
-        <v>9</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T50" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="U50" t="n">
-        <v>9</v>
-      </c>
-      <c r="V50" t="n">
-        <v>8</v>
-      </c>
-      <c r="W50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>z9ynd50T</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T51" t="n">
-        <v>6</v>
-      </c>
-      <c r="U51" t="n">
-        <v>8</v>
-      </c>
-      <c r="V51" t="n">
-        <v>9</v>
-      </c>
-      <c r="W51" t="n">
-        <v>15</v>
-      </c>
-      <c r="X51" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF51" t="n">
         <v>21</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>pK44EnGc</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Boston River</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K52" t="n">
-        <v>8</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T52" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U52" t="n">
-        <v>8</v>
-      </c>
-      <c r="V52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W52" t="n">
-        <v>17</v>
-      </c>
-      <c r="X52" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>IN1lTouh</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>URUGUAY - SEGUNDA DIVISION</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Maldonado</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Rentistas</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T53" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="U53" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="V53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W53" t="n">
-        <v>29</v>
-      </c>
-      <c r="X53" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,22 +778,22 @@
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.53</v>
@@ -922,10 +922,10 @@
         <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>5.5</v>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.14</v>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
         <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1290,7 +1290,7 @@
         <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1327,10 +1327,10 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI7" t="n">
         <v>67</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.53</v>
@@ -1392,16 +1392,16 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -1422,13 +1422,13 @@
         <v>67</v>
       </c>
       <c r="X8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="n">
         <v>51</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>8</v>
@@ -1443,10 +1443,10 @@
         <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>8.5</v>
@@ -1505,7 +1505,7 @@
         <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.22</v>
@@ -1615,13 +1615,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1648,10 +1648,10 @@
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1675,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1758,10 +1758,10 @@
         <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1776,7 +1776,7 @@
         <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U11" t="n">
         <v>11</v>
@@ -1785,7 +1785,7 @@
         <v>9.5</v>
       </c>
       <c r="W11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
@@ -1809,19 +1809,19 @@
         <v>251</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -1868,10 +1868,10 @@
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
@@ -1994,16 +1994,16 @@
         <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2110,10 +2110,10 @@
         <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L14" t="n">
         <v>1.14</v>
@@ -2158,7 +2158,7 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
@@ -2345,54 +2345,54 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>20</v>
+      </c>
+      <c r="V16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>50</v>
+      </c>
+      <c r="X16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z16" t="n">
         <v>13</v>
       </c>
-      <c r="U16" t="n">
-        <v>22</v>
-      </c>
-      <c r="V16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>55</v>
-      </c>
-      <c r="X16" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>14</v>
-      </c>
       <c r="AA16" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC16" t="n">
         <v>40</v>
@@ -2401,22 +2401,22 @@
         <v>250</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG16" t="n">
         <v>7</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2576,7 +2576,7 @@
         <v>1.93</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
         <v>3.35</v>
@@ -2594,7 +2594,7 @@
         <v>5.3</v>
       </c>
       <c r="N18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="O18" t="n">
         <v>2.8</v>
@@ -2609,10 +2609,10 @@
         <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="T18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U18" t="n">
         <v>14.5</v>
@@ -2633,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
         <v>10.75</v>
@@ -2645,7 +2645,7 @@
         <v>120</v>
       </c>
       <c r="AE18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>25</v>
@@ -2939,13 +2939,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.07</v>
@@ -2981,46 +2981,46 @@
         <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
         <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
@@ -3427,13 +3427,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="H25" t="n">
         <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3446,96 +3446,96 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="U25" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="V25" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="W25" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X25" t="n">
         <v>8.75</v>
       </c>
       <c r="Y25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>65</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UgsiLtKb</t>
+          <t>fwfBxHAr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18/05/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Binacional</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3544,85 +3544,85 @@
         <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O26" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="U26" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W26" t="n">
+        <v>21</v>
+      </c>
+      <c r="X26" t="n">
         <v>17</v>
       </c>
-      <c r="X26" t="n">
-        <v>15</v>
-      </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AE26" t="n">
         <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fwfBxHAr</t>
+          <t>GhrKzeue</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3642,109 +3642,109 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Alianza Huanuco</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>1.18</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.25</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Q27" t="n">
         <v>3.75</v>
       </c>
-      <c r="N27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG27" t="n">
         <v>41</v>
       </c>
-      <c r="AD27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GhrKzeue</t>
+          <t>4fGa01Z1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3754,119 +3754,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Alianza Huanuco</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>13</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB28" t="n">
         <v>15</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K28" t="n">
-        <v>17</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T28" t="n">
-        <v>8</v>
-      </c>
-      <c r="U28" t="n">
-        <v>6</v>
-      </c>
-      <c r="V28" t="n">
-        <v>10</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7</v>
-      </c>
-      <c r="X28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y28" t="n">
+      <c r="AC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI28" t="n">
         <v>34</v>
       </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG28" t="n">
+      <c r="AJ28" t="n">
         <v>41</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4fGa01Z1</t>
+          <t>l2hfM7cT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3881,81 +3881,81 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.73</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K29" t="n">
-        <v>13</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.75</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="U29" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB29" t="n">
         <v>15</v>
@@ -3967,28 +3967,28 @@
         <v>201</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>l2hfM7cT</t>
+          <t>6wPKxTsA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4008,76 +4008,76 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8</v>
+      </c>
+      <c r="U30" t="n">
         <v>11</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T30" t="n">
-        <v>12</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>23</v>
+      </c>
+      <c r="X30" t="n">
         <v>21</v>
       </c>
-      <c r="V30" t="n">
-        <v>13</v>
-      </c>
-      <c r="W30" t="n">
-        <v>41</v>
-      </c>
-      <c r="X30" t="n">
-        <v>34</v>
-      </c>
       <c r="Y30" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
@@ -4086,31 +4086,31 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6wPKxTsA</t>
+          <t>2cSEViY8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4120,32 +4120,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
@@ -4160,10 +4160,10 @@
         <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4172,34 +4172,34 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W31" t="n">
+        <v>29</v>
+      </c>
+      <c r="X31" t="n">
         <v>23</v>
       </c>
-      <c r="X31" t="n">
-        <v>21</v>
-      </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4208,31 +4208,31 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>29</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2cSEViY8</t>
+          <t>lfWvFNEi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4247,114 +4247,54 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>RUSSIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Lokomotiv Moscow</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K32" t="n">
-        <v>10</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>13</v>
-      </c>
-      <c r="V32" t="n">
-        <v>11</v>
-      </c>
-      <c r="W32" t="n">
-        <v>29</v>
-      </c>
-      <c r="X32" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>29</v>
-      </c>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lfWvFNEi</t>
+          <t>lbOhK4gT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4364,22 +4304,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RUSSIA - PREMIER LEAGUE</t>
+          <t>RUSSIA - FNL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lokomotiv Moscow</t>
+          <t>Kamaz</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CSKA Moscow</t>
+          <t>Alania Vladikavkaz</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -4416,7 +4356,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lbOhK4gT</t>
+          <t>bDos25Xp</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4436,12 +4376,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kamaz</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Alania Vladikavkaz</t>
+          <t>Chernomorets Novorossijsk</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -4478,7 +4418,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bDos25Xp</t>
+          <t>ldaHiLEa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4488,59 +4428,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RUSSIA - FNL</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Chernomorets Novorossijsk</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K35" t="n">
+        <v>34</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T35" t="n">
+        <v>26</v>
+      </c>
+      <c r="U35" t="n">
+        <v>29</v>
+      </c>
+      <c r="V35" t="n">
+        <v>13</v>
+      </c>
+      <c r="W35" t="n">
+        <v>41</v>
+      </c>
+      <c r="X35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ldaHiLEa</t>
+          <t>pA1TvSVF</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4550,119 +4550,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T36" t="n">
         <v>10</v>
       </c>
-      <c r="N36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T36" t="n">
-        <v>26</v>
-      </c>
       <c r="U36" t="n">
+        <v>15</v>
+      </c>
+      <c r="V36" t="n">
+        <v>11</v>
+      </c>
+      <c r="W36" t="n">
         <v>29</v>
-      </c>
-      <c r="V36" t="n">
-        <v>13</v>
-      </c>
-      <c r="W36" t="n">
-        <v>41</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
       </c>
       <c r="Y36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI36" t="n">
         <v>19</v>
       </c>
-      <c r="Z36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pA1TvSVF</t>
+          <t>bXXHG0Uj</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4672,50 +4672,50 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4724,22 +4724,22 @@
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T37" t="n">
+        <v>9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>13</v>
+      </c>
+      <c r="V37" t="n">
         <v>10</v>
       </c>
-      <c r="U37" t="n">
-        <v>15</v>
-      </c>
-      <c r="V37" t="n">
-        <v>11</v>
-      </c>
       <c r="W37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X37" t="n">
         <v>21</v>
@@ -4748,7 +4748,7 @@
         <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
@@ -4760,31 +4760,31 @@
         <v>41</v>
       </c>
       <c r="AD37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE37" t="n">
         <v>9</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bXXHG0Uj</t>
+          <t>COcxyVF5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4804,76 +4804,76 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q38" t="n">
         <v>3.4</v>
       </c>
-      <c r="I38" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T38" t="n">
+        <v>9</v>
+      </c>
+      <c r="U38" t="n">
         <v>9.5</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>15</v>
+      </c>
+      <c r="X38" t="n">
         <v>13</v>
       </c>
-      <c r="V38" t="n">
-        <v>10</v>
-      </c>
-      <c r="W38" t="n">
-        <v>26</v>
-      </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>21</v>
       </c>
-      <c r="Y38" t="n">
-        <v>29</v>
-      </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB38" t="n">
         <v>13</v>
@@ -4882,31 +4882,31 @@
         <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE38" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COcxyVF5</t>
+          <t>8jioZ8pI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4926,22 +4926,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -4950,16 +4950,16 @@
         <v>15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O39" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P39" t="n">
         <v>1.3</v>
@@ -4968,22 +4968,22 @@
         <v>3.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U39" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V39" t="n">
         <v>8.5</v>
       </c>
       <c r="W39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X39" t="n">
         <v>13</v>
@@ -4995,40 +4995,40 @@
         <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
       </c>
       <c r="AD39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8jioZ8pI</t>
+          <t>hEs3MV0C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5048,100 +5048,100 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="M40" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="O40" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
+        <v>19</v>
+      </c>
+      <c r="X40" t="n">
         <v>17</v>
       </c>
-      <c r="X40" t="n">
-        <v>13</v>
-      </c>
       <c r="Y40" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
         <v>7</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AE40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF40" t="n">
         <v>15</v>
       </c>
-      <c r="AF40" t="n">
-        <v>21</v>
-      </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
         <v>29</v>
@@ -5150,7 +5150,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hEs3MV0C</t>
+          <t>vTlKQiRq</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5160,38 +5160,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.7</v>
       </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
@@ -5218,25 +5218,25 @@
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
         <v>26</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
         <v>7</v>
@@ -5251,28 +5251,28 @@
         <v>251</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>34</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vTlKQiRq</t>
+          <t>4IfMKUSb</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5287,81 +5287,81 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T42" t="n">
         <v>7.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
+        <v>19</v>
+      </c>
+      <c r="X42" t="n">
         <v>17</v>
       </c>
-      <c r="X42" t="n">
-        <v>15</v>
-      </c>
       <c r="Y42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
@@ -5373,19 +5373,19 @@
         <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
         <v>34</v>
@@ -5394,7 +5394,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4IfMKUSb</t>
+          <t>KO3bt4DD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5404,119 +5404,119 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.15</v>
+        <v>1.32</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="M43" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="N43" t="n">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="O43" t="n">
-        <v>1.85</v>
+        <v>2.95</v>
       </c>
       <c r="P43" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.75</v>
+        <v>4.15</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="U43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>21</v>
+        <v>9.75</v>
       </c>
       <c r="X43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB43" t="n">
         <v>17</v>
       </c>
-      <c r="Y43" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>15</v>
-      </c>
       <c r="AC43" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AD43" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AH43" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AI43" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KO3bt4DD</t>
+          <t>nB5jrQr1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5536,109 +5536,109 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.33</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>7.2</v>
+        <v>1.98</v>
       </c>
       <c r="J44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="M44" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="O44" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.05</v>
+        <v>3.35</v>
       </c>
       <c r="R44" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="S44" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="T44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U44" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="V44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>45</v>
+      </c>
+      <c r="X44" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG44" t="n">
         <v>8.75</v>
       </c>
-      <c r="W44" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>23</v>
-      </c>
       <c r="AH44" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AJ44" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>nB5jrQr1</t>
+          <t>zXoo475K</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5658,109 +5658,109 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L45" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M45" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O45" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="P45" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="R45" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S45" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="T45" t="n">
-        <v>13.5</v>
+        <v>9.75</v>
       </c>
       <c r="U45" t="n">
-        <v>20</v>
+        <v>9.25</v>
       </c>
       <c r="V45" t="n">
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="W45" t="n">
-        <v>45</v>
+        <v>12.5</v>
       </c>
       <c r="X45" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AC45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>37</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>zXoo475K</t>
+          <t>z9ynd50T</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5770,119 +5770,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="H46" t="n">
-        <v>4.15</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>4.85</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
         <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="O46" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="P46" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="T46" t="n">
-        <v>9.25</v>
+        <v>6.5</v>
       </c>
       <c r="U46" t="n">
+        <v>8</v>
+      </c>
+      <c r="V46" t="n">
         <v>9</v>
       </c>
-      <c r="V46" t="n">
-        <v>8</v>
-      </c>
       <c r="W46" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="X46" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD46" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="AE46" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AI46" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>z9ynd50T</t>
+          <t>pK44EnGc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5902,12 +5902,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -5920,327 +5920,83 @@
         <v>3.8</v>
       </c>
       <c r="J47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N47" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P47" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R47" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T47" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W47" t="n">
         <v>17</v>
       </c>
       <c r="X47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>351</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF47" t="n">
         <v>19</v>
       </c>
       <c r="AG47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
         <v>41</v>
       </c>
       <c r="AI47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>pK44EnGc</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Boston River</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K48" t="n">
-        <v>8</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T48" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U48" t="n">
-        <v>8</v>
-      </c>
-      <c r="V48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W48" t="n">
-        <v>17</v>
-      </c>
-      <c r="X48" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="n">
         <v>51</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>lha9K8jJ</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>18/05/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Los Angeles Galaxy</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K49" t="n">
-        <v>13</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T49" t="n">
-        <v>13</v>
-      </c>
-      <c r="U49" t="n">
-        <v>19</v>
-      </c>
-      <c r="V49" t="n">
-        <v>12</v>
-      </c>
-      <c r="W49" t="n">
-        <v>41</v>
-      </c>
-      <c r="X49" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -796,19 +796,19 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U3" t="n">
         <v>6.5</v>
@@ -820,41 +820,41 @@
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI3" t="n">
         <v>67</v>
       </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
@@ -922,10 +922,10 @@
         <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
         <v>5.5</v>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1017,13 +1017,13 @@
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>1.57</v>
@@ -1251,19 +1251,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1284,10 +1284,10 @@
         <v>3.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
@@ -1299,44 +1299,44 @@
         <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>81</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>101</v>
       </c>
       <c r="AI7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1374,10 +1374,10 @@
         <v>5.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1392,10 +1392,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1428,13 +1428,13 @@
         <v>51</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>8</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -1615,37 +1615,37 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>1.91</v>
@@ -1654,7 +1654,7 @@
         <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
         <v>7</v>
@@ -1666,13 +1666,13 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>7.5</v>
@@ -1684,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
         <v>1.1</v>
@@ -1886,10 +1886,10 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
         <v>2.2</v>
@@ -1898,50 +1898,50 @@
         <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W12" t="n">
+        <v>34</v>
+      </c>
+      <c r="X12" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y12" t="n">
         <v>41</v>
-      </c>
-      <c r="X12" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>51</v>
       </c>
       <c r="Z12" t="n">
         <v>6.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -1979,19 +1979,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2006,10 +2006,10 @@
         <v>1.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
         <v>2.25</v>
@@ -2042,7 +2042,7 @@
         <v>8.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>81</v>
@@ -2101,13 +2101,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2122,10 +2122,10 @@
         <v>5.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O14" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
@@ -2146,22 +2146,22 @@
         <v>15</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
         <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
         <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
@@ -2170,22 +2170,22 @@
         <v>29</v>
       </c>
       <c r="AD14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2262,7 +2262,7 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
         <v>7</v>
@@ -2271,7 +2271,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2295,22 +2295,22 @@
         <v>301</v>
       </c>
       <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="n">
         <v>19</v>
       </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>21</v>
-      </c>
       <c r="AH15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI15" t="n">
         <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2345,75 +2345,75 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O16" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="n">
         <v>250</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AG16" t="n">
         <v>7</v>
       </c>
       <c r="AH16" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>17.5</v>
@@ -2451,13 +2451,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2472,16 +2472,16 @@
         <v>4.8</v>
       </c>
       <c r="N17" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O17" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="P17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R17" t="n">
         <v>1.42</v>
@@ -2493,52 +2493,52 @@
         <v>13.5</v>
       </c>
       <c r="U17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
         <v>9.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD17" t="n">
         <v>150</v>
       </c>
       <c r="AE17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2838,10 +2838,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -3427,13 +3427,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3449,46 +3449,46 @@
         <v>6.9</v>
       </c>
       <c r="U25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="V25" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="W25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
         <v>8.75</v>
       </c>
       <c r="Y25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD25" t="n">
         <v>450</v>
       </c>
       <c r="AE25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG25" t="n">
         <v>23</v>
       </c>
-      <c r="AF25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>25</v>
-      </c>
       <c r="AH25" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI25" t="n">
         <v>80</v>
@@ -3550,25 +3550,25 @@
         <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
         <v>11</v>
@@ -3583,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
         <v>11</v>
@@ -3592,7 +3592,7 @@
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
         <v>41</v>
@@ -3601,7 +3601,7 @@
         <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
@@ -3616,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -3776,7 +3776,7 @@
         <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
         <v>4.5</v>
@@ -3788,31 +3788,31 @@
         <v>13</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U28" t="n">
         <v>8.5</v>
@@ -3830,19 +3830,19 @@
         <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB28" t="n">
         <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
@@ -3910,16 +3910,16 @@
         <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P29" t="n">
         <v>1.36</v>
@@ -3937,16 +3937,16 @@
         <v>11</v>
       </c>
       <c r="U29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
         <v>34</v>
@@ -3958,10 +3958,10 @@
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="n">
         <v>201</v>
@@ -3970,13 +3970,13 @@
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
         <v>17</v>
@@ -4020,34 +4020,34 @@
         <v>2.35</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R30" t="n">
         <v>1.83</v>
@@ -4056,13 +4056,13 @@
         <v>1.83</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U30" t="n">
         <v>11</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
         <v>23</v>
@@ -4071,25 +4071,25 @@
         <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -4569,19 +4569,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
         <v>1.25</v>
@@ -4590,10 +4590,10 @@
         <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -4614,7 +4614,7 @@
         <v>15</v>
       </c>
       <c r="V36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
         <v>29</v>
@@ -4623,7 +4623,7 @@
         <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z36" t="n">
         <v>12</v>
@@ -4641,13 +4641,13 @@
         <v>151</v>
       </c>
       <c r="AE36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>23</v>
@@ -4691,13 +4691,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
@@ -4706,16 +4706,16 @@
         <v>11</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O37" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4730,7 +4730,7 @@
         <v>2.05</v>
       </c>
       <c r="T37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U37" t="n">
         <v>13</v>
@@ -4813,13 +4813,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
         <v>1.03</v>
@@ -4828,34 +4828,34 @@
         <v>15</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O38" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
@@ -4882,7 +4882,7 @@
         <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -4897,7 +4897,7 @@
         <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
         <v>34</v>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -4956,16 +4956,16 @@
         <v>4.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R39" t="n">
         <v>1.57</v>
@@ -4995,7 +4995,7 @@
         <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB39" t="n">
         <v>12</v>
@@ -5019,7 +5019,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
         <v>29</v>
@@ -5066,22 +5066,22 @@
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O40" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5301,13 +5301,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5340,19 +5340,19 @@
         <v>1.91</v>
       </c>
       <c r="T42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W42" t="n">
+        <v>21</v>
+      </c>
+      <c r="X42" t="n">
         <v>19</v>
-      </c>
-      <c r="X42" t="n">
-        <v>17</v>
       </c>
       <c r="Y42" t="n">
         <v>29</v>
@@ -5373,10 +5373,10 @@
         <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG42" t="n">
         <v>12</v>
@@ -5926,10 +5926,10 @@
         <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N47" t="n">
         <v>2.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P2" t="n">
         <v>1.22</v>
@@ -686,10 +686,10 @@
         <v>2.75</v>
       </c>
       <c r="T2" t="n">
+        <v>15</v>
+      </c>
+      <c r="U2" t="n">
         <v>17</v>
-      </c>
-      <c r="U2" t="n">
-        <v>19</v>
       </c>
       <c r="V2" t="n">
         <v>11</v>
@@ -710,7 +710,7 @@
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>29</v>
@@ -722,19 +722,19 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -778,16 +778,16 @@
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
@@ -796,10 +796,10 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>2.63</v>
@@ -808,7 +808,7 @@
         <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U3" t="n">
         <v>6.5</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z3" t="n">
         <v>5</v>
@@ -1011,31 +1011,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.62</v>
@@ -1152,10 +1152,10 @@
         <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>1.67</v>
@@ -1254,10 +1254,10 @@
         <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1266,31 +1266,31 @@
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
         <v>6</v>
@@ -1299,22 +1299,22 @@
         <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>9.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>81</v>
@@ -1333,10 +1333,10 @@
         <v>101</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1371,73 +1371,73 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T8" t="n">
         <v>11</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T8" t="n">
-        <v>13</v>
-      </c>
       <c r="U8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="V8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="X8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="n">
         <v>41</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC8" t="n">
         <v>51</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>67</v>
       </c>
       <c r="AD8" t="n">
         <v>351</v>
@@ -1446,16 +1446,16 @@
         <v>6.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>29</v>
@@ -1636,10 +1636,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1737,49 +1737,49 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7</v>
+      </c>
+      <c r="U11" t="n">
         <v>10</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>11</v>
       </c>
       <c r="V11" t="n">
         <v>9.5</v>
@@ -1791,10 +1791,10 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -1806,13 +1806,13 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1821,10 +1821,10 @@
         <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1988,22 +1988,22 @@
         <v>6.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2101,13 +2101,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2149,7 +2149,7 @@
         <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2188,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -2374,7 +2374,7 @@
         <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
         <v>55</v>
@@ -2404,7 +2404,7 @@
         <v>7.2</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG16" t="n">
         <v>7</v>
@@ -2451,13 +2451,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2466,10 +2466,10 @@
         <v>9.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="N17" t="n">
         <v>1.45</v>
@@ -2478,10 +2478,10 @@
         <v>2.55</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
         <v>1.42</v>
@@ -2490,19 +2490,19 @@
         <v>2.67</v>
       </c>
       <c r="T17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
         <v>18.5</v>
@@ -2514,16 +2514,16 @@
         <v>8</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD17" t="n">
         <v>150</v>
       </c>
       <c r="AE17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -2538,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
@@ -2591,52 +2591,52 @@
         <v>1.12</v>
       </c>
       <c r="M18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="O18" t="n">
         <v>2.8</v>
       </c>
       <c r="P18" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="U18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>28</v>
@@ -2645,7 +2645,7 @@
         <v>120</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>25</v>
@@ -2654,13 +2654,13 @@
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -2939,19 +2939,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
         <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2981,19 +2981,19 @@
         <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
         <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
         <v>8.5</v>
@@ -3011,10 +3011,10 @@
         <v>401</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3073,19 +3073,19 @@
         <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P22" t="n">
         <v>1.25</v>
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J23" t="n">
         <v>1.01</v>
@@ -3198,37 +3198,37 @@
         <v>23</v>
       </c>
       <c r="L23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O23" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
         <v>21</v>
       </c>
       <c r="U23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W23" t="n">
         <v>51</v>
@@ -3255,13 +3255,13 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH23" t="n">
         <v>13</v>
@@ -3427,13 +3427,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3446,16 +3446,16 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V25" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
         <v>8.75</v>
@@ -3467,10 +3467,10 @@
         <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
         <v>70</v>
@@ -3479,19 +3479,19 @@
         <v>450</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="n">
         <v>65</v>
@@ -3529,13 +3529,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3568,25 +3568,25 @@
         <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
+        <v>15</v>
+      </c>
+      <c r="V26" t="n">
         <v>11</v>
       </c>
-      <c r="V26" t="n">
-        <v>9</v>
-      </c>
       <c r="W26" t="n">
+        <v>29</v>
+      </c>
+      <c r="X26" t="n">
         <v>21</v>
       </c>
-      <c r="X26" t="n">
-        <v>17</v>
-      </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
         <v>6.5</v>
@@ -3601,22 +3601,22 @@
         <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -3651,19 +3651,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.17</v>
@@ -3672,10 +3672,10 @@
         <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O27" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.25</v>
@@ -3684,10 +3684,10 @@
         <v>3.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
         <v>8</v>
@@ -3702,43 +3702,43 @@
         <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD27" t="n">
         <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>67</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -3794,10 +3794,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P28" t="n">
         <v>1.33</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
@@ -3928,28 +3928,28 @@
         <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T29" t="n">
+        <v>10</v>
+      </c>
+      <c r="U29" t="n">
+        <v>15</v>
+      </c>
+      <c r="V29" t="n">
         <v>11</v>
-      </c>
-      <c r="U29" t="n">
-        <v>17</v>
-      </c>
-      <c r="V29" t="n">
-        <v>12</v>
       </c>
       <c r="W29" t="n">
         <v>34</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
         <v>11</v>
@@ -3967,19 +3967,19 @@
         <v>201</v>
       </c>
       <c r="AE29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
         <v>19</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>26</v>
@@ -4017,49 +4017,49 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M30" t="n">
         <v>3.4</v>
       </c>
-      <c r="I30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
       <c r="N30" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V30" t="n">
         <v>10</v>
@@ -4071,40 +4071,40 @@
         <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>29</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4139,31 +4139,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4181,7 +4181,7 @@
         <v>8.5</v>
       </c>
       <c r="U31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V31" t="n">
         <v>11</v>
@@ -4450,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J35" t="n">
         <v>1.01</v>
@@ -4462,37 +4462,37 @@
         <v>34</v>
       </c>
       <c r="L35" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="M35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.22</v>
       </c>
-      <c r="O35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U35" t="n">
         <v>29</v>
       </c>
       <c r="V35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W35" t="n">
         <v>41</v>
@@ -4507,28 +4507,28 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB35" t="n">
         <v>11</v>
       </c>
       <c r="AC35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF35" t="n">
         <v>21</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>19</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
         <v>13</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
@@ -4596,37 +4596,37 @@
         <v>1.95</v>
       </c>
       <c r="P36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V36" t="n">
         <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4638,10 +4638,10 @@
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
         <v>13</v>
@@ -4650,13 +4650,13 @@
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -4691,13 +4691,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
@@ -4763,7 +4763,7 @@
         <v>201</v>
       </c>
       <c r="AE37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF37" t="n">
         <v>13</v>
@@ -4819,25 +4819,25 @@
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J38" t="n">
         <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M38" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O38" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P38" t="n">
         <v>1.29</v>
@@ -4846,16 +4846,16 @@
         <v>3.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T38" t="n">
         <v>9.5</v>
       </c>
       <c r="U38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
@@ -4882,7 +4882,7 @@
         <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -4935,46 +4935,46 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M39" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O39" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T39" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U39" t="n">
         <v>11</v>
@@ -4989,10 +4989,10 @@
         <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>7.5</v>
@@ -5001,10 +5001,10 @@
         <v>12</v>
       </c>
       <c r="AC39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD39" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -5019,10 +5019,10 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -5078,10 +5078,10 @@
         <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5307,7 +5307,7 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5322,10 +5322,10 @@
         <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O42" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>
@@ -5358,7 +5358,7 @@
         <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA42" t="n">
         <v>6.5</v>
@@ -5373,10 +5373,10 @@
         <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
         <v>12</v>
@@ -5423,13 +5423,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="H43" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I43" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5453,64 +5453,64 @@
         <v>1.19</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S43" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="T43" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="U43" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="X43" t="n">
         <v>10</v>
       </c>
       <c r="Y43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z43" t="n">
         <v>10.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD43" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF43" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH43" t="n">
         <v>150</v>
       </c>
       <c r="AI43" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ43" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -5545,13 +5545,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="J44" t="n">
         <v>1.03</v>
@@ -5563,7 +5563,7 @@
         <v>1.17</v>
       </c>
       <c r="M44" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="N44" t="n">
         <v>1.52</v>
@@ -5572,10 +5572,10 @@
         <v>2.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R44" t="n">
         <v>1.47</v>
@@ -5584,19 +5584,19 @@
         <v>2.5</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W44" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
         <v>24</v>
@@ -5605,34 +5605,34 @@
         <v>9.25</v>
       </c>
       <c r="AA44" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD44" t="n">
         <v>200</v>
       </c>
       <c r="AE44" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
         <v>8.75</v>
       </c>
       <c r="AH44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="45">
@@ -5667,49 +5667,49 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
       </c>
       <c r="K45" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M45" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="N45" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O45" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="P45" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="R45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="T45" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="U45" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="V45" t="n">
         <v>8</v>
@@ -5718,16 +5718,16 @@
         <v>12.5</v>
       </c>
       <c r="X45" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB45" t="n">
         <v>14</v>
@@ -5739,13 +5739,13 @@
         <v>300</v>
       </c>
       <c r="AE45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF45" t="n">
         <v>32</v>
       </c>
       <c r="AG45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH45" t="n">
         <v>90</v>
@@ -5801,7 +5801,7 @@
         <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.36</v>
@@ -5810,10 +5810,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P46" t="n">
         <v>1.44</v>
@@ -5822,16 +5822,16 @@
         <v>2.63</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S46" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T46" t="n">
         <v>6.5</v>
       </c>
       <c r="U46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V46" t="n">
         <v>9</v>
@@ -5882,7 +5882,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>pK44EnGc</t>
+          <t>vsrwbRVG</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5902,67 +5902,67 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.44</v>
       </c>
-      <c r="M47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.53</v>
-      </c>
       <c r="P47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T47" t="n">
         <v>5.5</v>
       </c>
       <c r="U47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y47" t="n">
         <v>41</v>
@@ -5971,31 +5971,151 @@
         <v>7</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>81</v>
       </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pK44EnGc</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>8</v>
+      </c>
+      <c r="V48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>17</v>
+      </c>
+      <c r="X48" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AF48" t="n">
         <v>19</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AG48" t="n">
         <v>15</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AH48" t="n">
         <v>41</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AI48" t="n">
         <v>41</v>
       </c>
-      <c r="AJ47" t="n">
+      <c r="AJ48" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -686,7 +686,7 @@
         <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U2" t="n">
         <v>17</v>
@@ -695,10 +695,10 @@
         <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
@@ -707,10 +707,10 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>29</v>
@@ -719,7 +719,7 @@
         <v>81</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -772,16 +772,16 @@
         <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.67</v>
@@ -790,10 +790,10 @@
         <v>2.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -802,19 +802,19 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -826,16 +826,16 @@
         <v>51</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
@@ -854,7 +854,7 @@
         <v>67</v>
       </c>
       <c r="AJ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
@@ -922,22 +922,22 @@
         <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>5.5</v>
       </c>
       <c r="U4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
@@ -961,16 +961,16 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1251,19 +1251,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
         <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1284,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1311,10 +1311,10 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>81</v>
@@ -1333,10 +1333,10 @@
         <v>101</v>
       </c>
       <c r="AI7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1392,10 +1392,10 @@
         <v>3.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1410,13 +1410,13 @@
         <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="U8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
         <v>41</v>
@@ -1428,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>17</v>
@@ -1446,13 +1446,13 @@
         <v>6.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
@@ -1770,16 +1770,16 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V11" t="n">
         <v>9.5</v>
@@ -1800,25 +1800,25 @@
         <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -1886,16 +1886,16 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
         <v>7.5</v>
@@ -1904,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
         <v>34</v>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -2021,13 +2021,13 @@
         <v>5.5</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2036,10 +2036,10 @@
         <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
@@ -2051,16 +2051,16 @@
         <v>1250</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2238,16 +2238,16 @@
         <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P15" t="n">
         <v>1.3</v>
@@ -2262,7 +2262,7 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U15" t="n">
         <v>7</v>
@@ -2271,7 +2271,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2295,22 +2295,22 @@
         <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="n">
         <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -2374,7 +2374,7 @@
         <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
         <v>55</v>
@@ -2401,10 +2401,10 @@
         <v>250</v>
       </c>
       <c r="AE16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF16" t="n">
         <v>7.2</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7.3</v>
       </c>
       <c r="AG16" t="n">
         <v>7</v>
@@ -2454,10 +2454,10 @@
         <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2469,13 +2469,13 @@
         <v>1.14</v>
       </c>
       <c r="M17" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="N17" t="n">
         <v>1.45</v>
       </c>
       <c r="O17" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="P17" t="n">
         <v>1.26</v>
@@ -2484,22 +2484,22 @@
         <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
         <v>9.75</v>
       </c>
       <c r="W17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X17" t="n">
         <v>16.5</v>
@@ -2535,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>19.5</v>
@@ -2579,7 +2579,7 @@
         <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
@@ -2600,19 +2600,19 @@
         <v>2.8</v>
       </c>
       <c r="P18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Q18" t="n">
         <v>3.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="T18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U18" t="n">
         <v>14</v>
@@ -2621,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -2636,7 +2636,7 @@
         <v>8.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC18" t="n">
         <v>28</v>
@@ -2645,7 +2645,7 @@
         <v>120</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF18" t="n">
         <v>25</v>
@@ -2695,19 +2695,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.16</v>
@@ -2716,34 +2716,34 @@
         <v>4.55</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O19" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="T19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V19" t="n">
         <v>11.5</v>
       </c>
       <c r="W19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X19" t="n">
         <v>24</v>
@@ -2752,22 +2752,22 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD19" t="n">
         <v>175</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF19" t="n">
         <v>12</v>
@@ -2776,7 +2776,7 @@
         <v>8.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>14</v>
@@ -2838,10 +2838,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2951,7 +2951,7 @@
         <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2960,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -3192,10 +3192,10 @@
         <v>1.55</v>
       </c>
       <c r="J23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L23" t="n">
         <v>1.11</v>
@@ -3210,10 +3210,10 @@
         <v>2.88</v>
       </c>
       <c r="P23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R23" t="n">
         <v>1.5</v>
@@ -3258,10 +3258,10 @@
         <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
         <v>13</v>
@@ -3427,13 +3427,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3446,55 +3446,55 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="U25" t="n">
         <v>5.6</v>
       </c>
       <c r="V25" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="X25" t="n">
         <v>8.75</v>
       </c>
       <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB25" t="n">
         <v>21</v>
       </c>
-      <c r="Z25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC25" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3529,25 +3529,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>1.8</v>
@@ -3568,7 +3568,7 @@
         <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U26" t="n">
         <v>15</v>
@@ -3601,13 +3601,13 @@
         <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
@@ -3616,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -3678,10 +3678,10 @@
         <v>2.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
         <v>2.2</v>
@@ -3690,7 +3690,7 @@
         <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
         <v>6</v>
@@ -3702,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
@@ -3711,7 +3711,7 @@
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -3723,7 +3723,7 @@
         <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
@@ -3738,7 +3738,7 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -3794,10 +3794,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P28" t="n">
         <v>1.33</v>
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4032,16 +4032,16 @@
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4056,19 +4056,19 @@
         <v>1.91</v>
       </c>
       <c r="T30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
         <v>29</v>
@@ -4077,7 +4077,7 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
@@ -4089,22 +4089,22 @@
         <v>251</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4160,10 +4160,10 @@
         <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4172,31 +4172,31 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
         <v>29</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>7</v>
@@ -4208,19 +4208,19 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>9.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -4569,37 +4569,37 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.85</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.95</v>
-      </c>
       <c r="P36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R36" t="n">
         <v>1.73</v>
@@ -4614,10 +4614,10 @@
         <v>13</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -4626,7 +4626,7 @@
         <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4641,16 +4641,16 @@
         <v>201</v>
       </c>
       <c r="AE36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
         <v>21</v>
@@ -4691,13 +4691,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
@@ -4763,7 +4763,7 @@
         <v>201</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF37" t="n">
         <v>13</v>
@@ -4778,7 +4778,7 @@
         <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -4816,7 +4816,7 @@
         <v>1.73</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
         <v>4.33</v>
@@ -4825,25 +4825,25 @@
         <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L38" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O38" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P38" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R38" t="n">
         <v>1.62</v>
@@ -4852,7 +4852,7 @@
         <v>2.2</v>
       </c>
       <c r="T38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U38" t="n">
         <v>9.5</v>
@@ -4897,7 +4897,7 @@
         <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
         <v>34</v>
@@ -4950,16 +4950,16 @@
         <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O39" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P39" t="n">
         <v>1.25</v>
@@ -5060,10 +5060,10 @@
         <v>2.1</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
@@ -5084,22 +5084,22 @@
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V40" t="n">
         <v>9</v>
@@ -5111,7 +5111,7 @@
         <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z40" t="n">
         <v>12</v>
@@ -5120,19 +5120,19 @@
         <v>7</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
         <v>11</v>
@@ -5304,46 +5304,46 @@
         <v>2.2</v>
       </c>
       <c r="H42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.3</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="n">
+        <v>9</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7</v>
+      </c>
+      <c r="U42" t="n">
         <v>10</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T42" t="n">
-        <v>8</v>
-      </c>
-      <c r="U42" t="n">
-        <v>11</v>
       </c>
       <c r="V42" t="n">
         <v>9.5</v>
@@ -5355,13 +5355,13 @@
         <v>19</v>
       </c>
       <c r="Y42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
@@ -5370,13 +5370,13 @@
         <v>51</v>
       </c>
       <c r="AD42" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG42" t="n">
         <v>12</v>
@@ -5385,10 +5385,10 @@
         <v>34</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -5423,13 +5423,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="H43" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I43" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5438,79 +5438,79 @@
         <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M43" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="N43" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="O43" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="P43" t="n">
         <v>1.19</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="T43" t="n">
         <v>12</v>
       </c>
       <c r="U43" t="n">
+        <v>9</v>
+      </c>
+      <c r="V43" t="n">
         <v>9.25</v>
       </c>
-      <c r="V43" t="n">
-        <v>9</v>
-      </c>
       <c r="W43" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="n">
         <v>10.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC43" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD43" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AF43" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AG43" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH43" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AI43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -5545,25 +5545,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
         <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="J44" t="n">
         <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L44" t="n">
         <v>1.17</v>
       </c>
       <c r="M44" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="N44" t="n">
         <v>1.52</v>
@@ -5572,10 +5572,10 @@
         <v>2.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R44" t="n">
         <v>1.47</v>
@@ -5587,28 +5587,28 @@
         <v>14</v>
       </c>
       <c r="U44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V44" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W44" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X44" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA44" t="n">
         <v>7.7</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC44" t="n">
         <v>35</v>
@@ -5617,22 +5617,22 @@
         <v>200</v>
       </c>
       <c r="AE44" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -5670,7 +5670,7 @@
         <v>1.6</v>
       </c>
       <c r="H45" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
         <v>4.85</v>
@@ -5685,7 +5685,7 @@
         <v>1.18</v>
       </c>
       <c r="M45" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="N45" t="n">
         <v>1.55</v>
@@ -5697,13 +5697,13 @@
         <v>1.29</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R45" t="n">
         <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T45" t="n">
         <v>9</v>
@@ -5813,7 +5813,7 @@
         <v>2.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P46" t="n">
         <v>1.44</v>
@@ -5926,10 +5926,10 @@
         <v>7</v>
       </c>
       <c r="L47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N47" t="n">
         <v>2.7</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.17</v>
@@ -802,10 +802,10 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
         <v>4.33</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
@@ -922,25 +922,25 @@
         <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
         <v>5.5</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
@@ -961,16 +961,16 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1251,19 +1251,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1284,53 +1284,53 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V7" t="n">
         <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="n">
         <v>51</v>
@@ -1380,22 +1380,22 @@
         <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1532,13 +1532,13 @@
         <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
         <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W9" t="n">
         <v>17</v>
@@ -1859,19 +1859,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
@@ -1880,28 +1880,28 @@
         <v>2.5</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
         <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
         <v>12</v>
@@ -1910,7 +1910,7 @@
         <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
         <v>41</v>
@@ -1979,19 +1979,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2000,16 +2000,16 @@
         <v>3.25</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R13" t="n">
         <v>2.25</v>
@@ -2021,25 +2021,25 @@
         <v>5.5</v>
       </c>
       <c r="U13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>34</v>
       </c>
       <c r="Z13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA13" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>8</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
@@ -2051,16 +2051,16 @@
         <v>1250</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
@@ -2116,10 +2116,10 @@
         <v>19</v>
       </c>
       <c r="L14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
         <v>1.48</v>
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2238,16 +2238,16 @@
         <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O15" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P15" t="n">
         <v>1.3</v>
@@ -2271,7 +2271,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2286,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2295,10 +2295,10 @@
         <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2345,23 +2345,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -2371,52 +2371,52 @@
         <v>12.5</v>
       </c>
       <c r="U16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
         <v>6.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD16" t="n">
         <v>250</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AG16" t="n">
         <v>7</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -2451,19 +2451,19 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.52</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.14</v>
@@ -2478,46 +2478,46 @@
         <v>2.57</v>
       </c>
       <c r="P17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="T17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U17" t="n">
         <v>17</v>
       </c>
       <c r="V17" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W17" t="n">
         <v>29</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD17" t="n">
         <v>150</v>
@@ -2526,19 +2526,19 @@
         <v>13.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -2838,10 +2838,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2960,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -3061,19 +3061,19 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>4.33</v>
-      </c>
       <c r="I22" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L22" t="n">
         <v>1.13</v>
@@ -3088,10 +3088,10 @@
         <v>2.7</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
         <v>1.53</v>
@@ -3100,7 +3100,7 @@
         <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U22" t="n">
         <v>29</v>
@@ -3121,7 +3121,7 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
         <v>13</v>
@@ -3130,7 +3130,7 @@
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
@@ -3145,7 +3145,7 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>19</v>
@@ -3183,31 +3183,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H23" t="n">
         <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="O23" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="P23" t="n">
         <v>1.2</v>
@@ -3216,13 +3216,13 @@
         <v>4.33</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U23" t="n">
         <v>34</v>
@@ -3240,7 +3240,7 @@
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>10</v>
@@ -3252,10 +3252,10 @@
         <v>34</v>
       </c>
       <c r="AD23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>11</v>
@@ -3264,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
@@ -3427,13 +3427,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3449,52 +3449,52 @@
         <v>7.4</v>
       </c>
       <c r="U25" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="V25" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="W25" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="X25" t="n">
         <v>8.75</v>
       </c>
       <c r="Y25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
         <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD25" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
       </c>
       <c r="AF25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>65</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3529,13 +3529,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3550,10 +3550,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3583,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z26" t="n">
         <v>12</v>
@@ -3601,13 +3601,13 @@
         <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
@@ -3616,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H27" t="n">
         <v>5.5</v>
@@ -3678,40 +3678,40 @@
         <v>2.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V27" t="n">
         <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z27" t="n">
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -3723,7 +3723,7 @@
         <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
@@ -3738,7 +3738,7 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -3773,13 +3773,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3794,16 +3794,16 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R28" t="n">
         <v>1.75</v>
@@ -3815,49 +3815,49 @@
         <v>8</v>
       </c>
       <c r="U28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
         <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB28" t="n">
         <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD28" t="n">
         <v>201</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
         <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="n">
         <v>41</v>
@@ -4038,10 +4038,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4160,10 +4160,10 @@
         <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4569,19 +4569,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
         <v>1.29</v>
@@ -4590,10 +4590,10 @@
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4611,7 +4611,7 @@
         <v>9.5</v>
       </c>
       <c r="U36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V36" t="n">
         <v>11</v>
@@ -4620,10 +4620,10 @@
         <v>29</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="n">
         <v>10</v>
@@ -4635,7 +4635,7 @@
         <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
         <v>201</v>
@@ -4647,13 +4647,13 @@
         <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH36" t="n">
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>29</v>
@@ -4819,7 +4819,7 @@
         <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.03</v>
@@ -4828,10 +4828,10 @@
         <v>15</v>
       </c>
       <c r="L38" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N38" t="n">
         <v>1.65</v>
@@ -4894,7 +4894,7 @@
         <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
         <v>34</v>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
         <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -4950,10 +4950,10 @@
         <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
         <v>1.53</v>
@@ -4968,22 +4968,22 @@
         <v>3.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
         <v>11</v>
       </c>
       <c r="U39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X39" t="n">
         <v>13</v>
@@ -5019,7 +5019,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ39" t="n">
         <v>26</v>
@@ -5066,10 +5066,10 @@
         <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
         <v>1.25</v>
@@ -5078,10 +5078,10 @@
         <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P40" t="n">
         <v>1.33</v>
@@ -5304,16 +5304,16 @@
         <v>2.2</v>
       </c>
       <c r="H42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.25</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" t="n">
         <v>1.36</v>
@@ -5325,7 +5325,7 @@
         <v>2.15</v>
       </c>
       <c r="O42" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5358,7 +5358,7 @@
         <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -5370,7 +5370,7 @@
         <v>51</v>
       </c>
       <c r="AD42" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE42" t="n">
         <v>9</v>
@@ -5423,13 +5423,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="H43" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I43" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5438,22 +5438,22 @@
         <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M43" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="N43" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="O43" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="R43" t="n">
         <v>1.62</v>
@@ -5462,55 +5462,55 @@
         <v>2.15</v>
       </c>
       <c r="T43" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="U43" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V43" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W43" t="n">
         <v>9.25</v>
-      </c>
-      <c r="W43" t="n">
-        <v>9.5</v>
       </c>
       <c r="X43" t="n">
         <v>9.75</v>
       </c>
       <c r="Y43" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA43" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AB43" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD43" t="n">
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AF43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>300</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>65</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -5545,94 +5545,94 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K44" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M44" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N44" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="O44" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="P44" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S44" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T44" t="n">
-        <v>14</v>
+        <v>11.25</v>
       </c>
       <c r="U44" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V44" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="W44" t="n">
+        <v>37</v>
+      </c>
+      <c r="X44" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC44" t="n">
         <v>45</v>
       </c>
-      <c r="X44" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>35</v>
-      </c>
       <c r="AD44" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AE44" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI44" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -5801,7 +5801,7 @@
         <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
         <v>1.36</v>
@@ -5810,10 +5810,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P46" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
@@ -686,7 +686,7 @@
         <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U2" t="n">
         <v>17</v>
@@ -704,13 +704,13 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>29</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
         <v>1.53</v>
@@ -967,13 +967,13 @@
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1272,10 +1272,10 @@
         <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1296,10 +1296,10 @@
         <v>6.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1308,7 +1308,7 @@
         <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
@@ -1319,7 +1319,9 @@
       <c r="AC7" t="n">
         <v>67</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>1250</v>
+      </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
@@ -1327,10 +1329,10 @@
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI7" t="n">
         <v>51</v>
@@ -1371,19 +1373,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1392,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1404,61 +1406,61 @@
         <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="U8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W8" t="n">
+        <v>51</v>
+      </c>
+      <c r="X8" t="n">
         <v>41</v>
       </c>
-      <c r="X8" t="n">
-        <v>34</v>
-      </c>
       <c r="Y8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="n">
         <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
         <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1493,13 +1495,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1535,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1556,7 +1558,7 @@
         <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1568,19 +1570,19 @@
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
       </c>
       <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1737,13 +1739,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
@@ -1752,10 +1754,10 @@
         <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
         <v>2.25</v>
@@ -1785,7 +1787,7 @@
         <v>9.5</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1794,13 +1796,13 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
@@ -1809,7 +1811,7 @@
         <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
@@ -1821,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -1859,19 +1861,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
@@ -1892,25 +1894,25 @@
         <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>41</v>
@@ -1929,19 +1931,19 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -1979,10 +1981,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
         <v>6.5</v>
@@ -2000,10 +2002,10 @@
         <v>3.25</v>
       </c>
       <c r="N13" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2027,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2039,7 +2041,7 @@
         <v>9.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
@@ -2101,13 +2103,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2116,10 +2118,10 @@
         <v>19</v>
       </c>
       <c r="L14" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N14" t="n">
         <v>1.48</v>
@@ -2149,7 +2151,7 @@
         <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2188,7 +2190,7 @@
         <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2223,19 +2225,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
         <v>1.22</v>
@@ -2244,16 +2246,16 @@
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R15" t="n">
         <v>1.91</v>
@@ -2262,16 +2264,16 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2280,10 +2282,10 @@
         <v>26</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB15" t="n">
         <v>19</v>
@@ -2295,13 +2297,13 @@
         <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
         <v>81</v>
@@ -2310,7 +2312,7 @@
         <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -2345,36 +2347,36 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O16" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
         <v>50</v>
@@ -2383,13 +2385,13 @@
         <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB16" t="n">
         <v>11.75</v>
@@ -2398,10 +2400,10 @@
         <v>40</v>
       </c>
       <c r="AD16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF16" t="n">
         <v>7.6</v>
@@ -2416,7 +2418,7 @@
         <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2838,10 +2840,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2939,19 +2941,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2981,19 +2983,19 @@
         <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
         <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
         <v>8.5</v>
@@ -3011,10 +3013,10 @@
         <v>401</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3061,13 +3063,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -3076,16 +3078,16 @@
         <v>21</v>
       </c>
       <c r="L22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O22" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P22" t="n">
         <v>1.22</v>
@@ -3103,10 +3105,10 @@
         <v>21</v>
       </c>
       <c r="U22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W22" t="n">
         <v>51</v>
@@ -3115,16 +3117,16 @@
         <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>41</v>
@@ -3142,7 +3144,7 @@
         <v>8.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -3183,19 +3185,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.01</v>
       </c>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L23" t="n">
         <v>1.1</v>
@@ -3210,10 +3212,10 @@
         <v>3.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R23" t="n">
         <v>1.44</v>
@@ -3243,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
         <v>13</v>
@@ -3264,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
@@ -3430,10 +3432,10 @@
         <v>1.22</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3446,16 +3448,16 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U25" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="V25" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="W25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
         <v>8.75</v>
@@ -3464,7 +3466,7 @@
         <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
         <v>10</v>
@@ -3473,13 +3475,13 @@
         <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="n">
         <v>450</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>60</v>
@@ -3494,7 +3496,7 @@
         <v>90</v>
       </c>
       <c r="AJ25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -3651,13 +3653,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3678,34 +3680,34 @@
         <v>2.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
         <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
         <v>13</v>
@@ -3714,31 +3716,31 @@
         <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="n">
         <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>81</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -3773,31 +3775,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P28" t="n">
         <v>1.3</v>
@@ -3806,22 +3808,22 @@
         <v>3.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T28" t="n">
         <v>8</v>
       </c>
       <c r="U28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
@@ -3833,10 +3835,10 @@
         <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>51</v>
@@ -3845,16 +3847,16 @@
         <v>201</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI28" t="n">
         <v>41</v>
@@ -4017,19 +4019,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4038,43 +4040,43 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.93</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.88</v>
-      </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
+        <v>23</v>
+      </c>
+      <c r="X30" t="n">
         <v>21</v>
-      </c>
-      <c r="X30" t="n">
-        <v>19</v>
       </c>
       <c r="Y30" t="n">
         <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
         <v>7</v>
@@ -4083,28 +4085,28 @@
         <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>29</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4139,46 +4141,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O31" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U31" t="n">
         <v>13</v>
@@ -4187,46 +4189,46 @@
         <v>10</v>
       </c>
       <c r="W31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X31" t="n">
         <v>21</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -4578,10 +4580,10 @@
         <v>2.38</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
         <v>1.29</v>
@@ -4691,13 +4693,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
@@ -4730,16 +4732,16 @@
         <v>2.05</v>
       </c>
       <c r="T37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X37" t="n">
         <v>21</v>
@@ -4766,16 +4768,16 @@
         <v>9</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
         <v>26</v>
@@ -4813,7 +4815,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>3.8</v>
@@ -4834,10 +4836,10 @@
         <v>4.33</v>
       </c>
       <c r="N38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O38" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P38" t="n">
         <v>1.3</v>
@@ -4846,22 +4848,22 @@
         <v>3.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U38" t="n">
         <v>9</v>
-      </c>
-      <c r="U38" t="n">
-        <v>9.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
@@ -4870,7 +4872,7 @@
         <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA38" t="n">
         <v>7.5</v>
@@ -4888,7 +4890,7 @@
         <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG38" t="n">
         <v>15</v>
@@ -4935,13 +4937,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -4956,16 +4958,16 @@
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O39" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R39" t="n">
         <v>1.5</v>
@@ -4986,10 +4988,10 @@
         <v>19</v>
       </c>
       <c r="X39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
         <v>17</v>
@@ -5013,7 +5015,7 @@
         <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
         <v>41</v>
@@ -5057,19 +5059,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
         <v>1.25</v>
@@ -5078,16 +5080,16 @@
         <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O40" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>1.7</v>
@@ -5096,28 +5098,28 @@
         <v>2.05</v>
       </c>
       <c r="T40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z40" t="n">
         <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
@@ -5129,16 +5131,16 @@
         <v>201</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
         <v>23</v>
@@ -5179,13 +5181,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5200,16 +5202,16 @@
         <v>3.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O41" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P41" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R41" t="n">
         <v>1.75</v>
@@ -5218,19 +5220,19 @@
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U41" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W41" t="n">
+        <v>21</v>
+      </c>
+      <c r="X41" t="n">
         <v>17</v>
-      </c>
-      <c r="X41" t="n">
-        <v>15</v>
       </c>
       <c r="Y41" t="n">
         <v>26</v>
@@ -5239,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB41" t="n">
         <v>15</v>
@@ -5248,22 +5250,22 @@
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG41" t="n">
         <v>11</v>
       </c>
-      <c r="AF41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>13</v>
-      </c>
       <c r="AH41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ41" t="n">
         <v>34</v>
@@ -5310,22 +5312,22 @@
         <v>3.25</v>
       </c>
       <c r="J42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N42" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5667,46 +5669,46 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I45" t="n">
         <v>4.1</v>
       </c>
-      <c r="I45" t="n">
-        <v>4.85</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="M45" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="N45" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O45" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="P45" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S45" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U45" t="n">
         <v>8.75</v>
@@ -5715,46 +5717,46 @@
         <v>8</v>
       </c>
       <c r="W45" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="X45" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="AB45" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AD45" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AE45" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AI45" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="46">
@@ -5938,16 +5940,16 @@
         <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T47" t="n">
         <v>5.5</v>
@@ -5956,7 +5958,7 @@
         <v>9</v>
       </c>
       <c r="V47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W47" t="n">
         <v>21</v>
@@ -5968,7 +5970,7 @@
         <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA47" t="n">
         <v>7</v>
@@ -5977,7 +5979,7 @@
         <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
@@ -5990,13 +5992,13 @@
         <v>12</v>
       </c>
       <c r="AH47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI47" t="n">
         <v>34</v>
       </c>
       <c r="AJ47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -650,49 +650,49 @@
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.44</v>
       </c>
-      <c r="O2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
       </c>
       <c r="U2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>26</v>
@@ -704,22 +704,22 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.67</v>
@@ -802,13 +802,13 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>6</v>
@@ -817,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -829,29 +829,29 @@
         <v>4.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>151</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI3" t="n">
         <v>81</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>67</v>
       </c>
       <c r="AJ3" t="n">
         <v>101</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
         <v>3.6</v>
@@ -931,7 +931,7 @@
         <v>5.5</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
@@ -961,10 +961,10 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1394,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1412,10 +1412,10 @@
         <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>17</v>
@@ -1433,7 +1433,7 @@
         <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1451,10 +1451,10 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
@@ -1638,10 +1638,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1861,13 +1861,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>1.1</v>
@@ -1882,10 +1882,10 @@
         <v>2.5</v>
       </c>
       <c r="N12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
         <v>1.57</v>
@@ -1903,13 +1903,13 @@
         <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
         <v>11</v>
       </c>
       <c r="W12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -1990,22 +1990,22 @@
         <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2103,43 +2103,43 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="O14" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T14" t="n">
         <v>13</v>
@@ -2151,7 +2151,7 @@
         <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2160,7 +2160,7 @@
         <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>8</v>
@@ -2175,13 +2175,13 @@
         <v>81</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2453,16 +2453,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
         <v>9.75</v>
@@ -2471,28 +2471,28 @@
         <v>1.14</v>
       </c>
       <c r="M17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="O17" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U17" t="n">
         <v>17</v>
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="W17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X17" t="n">
         <v>17.5</v>
@@ -2513,22 +2513,22 @@
         <v>9.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD17" t="n">
         <v>150</v>
       </c>
       <c r="AE17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
         <v>9.75</v>
@@ -2537,10 +2537,10 @@
         <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18">
@@ -2697,37 +2697,37 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L19" t="n">
         <v>1.16</v>
       </c>
       <c r="M19" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="N19" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="P19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.45</v>
@@ -2742,7 +2742,7 @@
         <v>23</v>
       </c>
       <c r="V19" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W19" t="n">
         <v>50</v>
@@ -2751,25 +2751,25 @@
         <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z19" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD19" t="n">
         <v>175</v>
       </c>
       <c r="AE19" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>12</v>
@@ -2778,13 +2778,13 @@
         <v>8.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2819,19 +2819,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -2840,10 +2840,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2906,7 +2906,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -2941,19 +2941,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2974,10 +2974,10 @@
         <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
@@ -2989,19 +2989,19 @@
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X21" t="n">
         <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
         <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
         <v>19</v>
@@ -3010,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3069,7 +3069,7 @@
         <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -3078,16 +3078,16 @@
         <v>21</v>
       </c>
       <c r="L22" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O22" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P22" t="n">
         <v>1.22</v>
@@ -3123,7 +3123,7 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3132,13 +3132,13 @@
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG22" t="n">
         <v>8.5</v>
@@ -3185,19 +3185,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J23" t="n">
         <v>1.01</v>
       </c>
       <c r="K23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L23" t="n">
         <v>1.1</v>
@@ -3245,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
         <v>13</v>
@@ -3534,16 +3534,16 @@
         <v>2.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
         <v>1.22</v>
@@ -3552,10 +3552,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3570,7 +3570,7 @@
         <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
         <v>15</v>
@@ -3579,7 +3579,7 @@
         <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X26" t="n">
         <v>21</v>
@@ -3588,7 +3588,7 @@
         <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>6.5</v>
@@ -3612,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
         <v>19</v>
@@ -3775,37 +3775,37 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O28" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R28" t="n">
         <v>1.8</v>
@@ -3823,43 +3823,43 @@
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X28" t="n">
         <v>11</v>
-      </c>
-      <c r="X28" t="n">
-        <v>12</v>
       </c>
       <c r="Y28" t="n">
         <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ28" t="n">
         <v>41</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
@@ -3912,16 +3912,16 @@
         <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P29" t="n">
         <v>1.36</v>
@@ -3930,16 +3930,16 @@
         <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V29" t="n">
         <v>11</v>
@@ -3951,7 +3951,7 @@
         <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="n">
         <v>11</v>
@@ -3981,7 +3981,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>26</v>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4067,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="W30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X30" t="n">
         <v>21</v>
@@ -4141,19 +4141,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4162,10 +4162,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O31" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4174,25 +4174,25 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>12</v>
+      </c>
+      <c r="V31" t="n">
         <v>9.5</v>
       </c>
-      <c r="U31" t="n">
-        <v>13</v>
-      </c>
-      <c r="V31" t="n">
-        <v>10</v>
-      </c>
       <c r="W31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
@@ -4204,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
@@ -4216,19 +4216,19 @@
         <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -4571,19 +4571,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
         <v>1.29</v>
@@ -4592,16 +4592,16 @@
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>1.73</v>
@@ -4610,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U36" t="n">
         <v>15</v>
@@ -4625,10 +4625,10 @@
         <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4637,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="n">
         <v>201</v>
@@ -4652,13 +4652,13 @@
         <v>9.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
         <v>19</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -4696,7 +4696,7 @@
         <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
         <v>2.4</v>
@@ -4708,16 +4708,16 @@
         <v>11</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O37" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4732,7 +4732,7 @@
         <v>2.05</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U37" t="n">
         <v>15</v>
@@ -4744,7 +4744,7 @@
         <v>29</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
         <v>29</v>
@@ -4765,7 +4765,7 @@
         <v>201</v>
       </c>
       <c r="AE37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF37" t="n">
         <v>12</v>
@@ -4780,7 +4780,7 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -4836,10 +4836,10 @@
         <v>4.33</v>
       </c>
       <c r="N38" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P38" t="n">
         <v>1.3</v>
@@ -4937,13 +4937,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -4952,22 +4952,22 @@
         <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O39" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R39" t="n">
         <v>1.5</v>
@@ -4979,13 +4979,13 @@
         <v>11</v>
       </c>
       <c r="U39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
         <v>15</v>
@@ -5000,7 +5000,7 @@
         <v>7.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
         <v>34</v>
@@ -5012,19 +5012,19 @@
         <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -5059,13 +5059,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
@@ -5098,13 +5098,13 @@
         <v>2.05</v>
       </c>
       <c r="T40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>11</v>
+      </c>
+      <c r="V40" t="n">
         <v>9</v>
-      </c>
-      <c r="U40" t="n">
-        <v>12</v>
-      </c>
-      <c r="V40" t="n">
-        <v>9.5</v>
       </c>
       <c r="W40" t="n">
         <v>21</v>
@@ -5119,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
@@ -5131,16 +5131,16 @@
         <v>201</v>
       </c>
       <c r="AE40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI40" t="n">
         <v>23</v>
@@ -5181,19 +5181,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
@@ -5208,10 +5208,10 @@
         <v>1.85</v>
       </c>
       <c r="P41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
         <v>1.75</v>
@@ -5220,16 +5220,16 @@
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V41" t="n">
         <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X41" t="n">
         <v>17</v>
@@ -5238,7 +5238,7 @@
         <v>26</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
@@ -5250,22 +5250,22 @@
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ41" t="n">
         <v>34</v>
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" t="n">
         <v>1.4</v>
@@ -5345,7 +5345,7 @@
         <v>7</v>
       </c>
       <c r="U42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V42" t="n">
         <v>9.5</v>
@@ -5354,13 +5354,13 @@
         <v>21</v>
       </c>
       <c r="X42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
         <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -5372,10 +5372,10 @@
         <v>51</v>
       </c>
       <c r="AD42" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF42" t="n">
         <v>15</v>
@@ -5387,7 +5387,7 @@
         <v>34</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
         <v>41</v>
@@ -5669,94 +5669,94 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H45" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I45" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J45" t="n">
         <v>1.05</v>
       </c>
       <c r="K45" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L45" t="n">
         <v>1.27</v>
       </c>
       <c r="M45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N45" t="n">
         <v>1.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P45" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R45" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T45" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="U45" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V45" t="n">
         <v>8</v>
       </c>
       <c r="W45" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X45" t="n">
         <v>13.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB45" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
         <v>65</v>
       </c>
       <c r="AD45" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE45" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG45" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH45" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
@@ -5916,16 +5916,16 @@
         <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.57</v>
@@ -5940,25 +5940,25 @@
         <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T47" t="n">
         <v>5.5</v>
       </c>
       <c r="U47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W47" t="n">
         <v>21</v>
@@ -5973,26 +5973,26 @@
         <v>6.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG47" t="n">
         <v>13</v>
       </c>
-      <c r="AG47" t="n">
-        <v>12</v>
-      </c>
       <c r="AH47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI47" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>1.14</v>
@@ -668,10 +668,10 @@
         <v>5.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P2" t="n">
         <v>1.25</v>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -731,7 +731,7 @@
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -772,16 +772,16 @@
         <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.67</v>
@@ -802,13 +802,13 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U3" t="n">
         <v>6</v>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>151</v>
@@ -848,7 +848,7 @@
         <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="n">
         <v>81</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.13</v>
@@ -904,22 +904,22 @@
         <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>2.2</v>
@@ -928,19 +928,19 @@
         <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -961,22 +961,22 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1182,7 +1182,7 @@
         <v>29</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1495,19 +1495,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
         <v>1.22</v>
@@ -1534,19 +1534,19 @@
         <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V9" t="n">
         <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>23</v>
@@ -1567,7 +1567,7 @@
         <v>151</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -1576,10 +1576,10 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
@@ -1638,10 +1638,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1751,13 +1751,13 @@
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>2.25</v>
@@ -1981,31 +1981,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2014,22 +2014,22 @@
         <v>2.75</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2041,7 +2041,7 @@
         <v>9.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
@@ -2056,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
@@ -2246,10 +2246,10 @@
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P15" t="n">
         <v>1.33</v>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
         <v>1.02</v>
@@ -2468,10 +2468,10 @@
         <v>9.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="N17" t="n">
         <v>1.42</v>
@@ -2483,31 +2483,31 @@
         <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="R17" t="n">
         <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="T17" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="U17" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="W17" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
         <v>9.75</v>
@@ -2525,22 +2525,22 @@
         <v>150</v>
       </c>
       <c r="AE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>16</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="18">
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
         <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
@@ -2590,79 +2590,79 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="M18" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="O18" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="P18" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
+        <v>15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>23</v>
+      </c>
+      <c r="X18" t="n">
         <v>14</v>
-      </c>
-      <c r="U18" t="n">
-        <v>14</v>
-      </c>
-      <c r="V18" t="n">
-        <v>9</v>
-      </c>
-      <c r="W18" t="n">
-        <v>21</v>
-      </c>
-      <c r="X18" t="n">
-        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
         <v>45</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2712,22 +2712,22 @@
         <v>9.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M19" t="n">
         <v>4.65</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O19" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="P19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R19" t="n">
         <v>1.45</v>
@@ -2736,10 +2736,10 @@
         <v>2.55</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V19" t="n">
         <v>11.75</v>
@@ -2748,7 +2748,7 @@
         <v>50</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
         <v>24</v>
@@ -2757,7 +2757,7 @@
         <v>9.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
         <v>11.25</v>
@@ -2778,7 +2778,7 @@
         <v>8.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
         <v>13.5</v>
@@ -2941,19 +2941,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2974,10 +2974,10 @@
         <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
@@ -2989,10 +2989,10 @@
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>34</v>
@@ -3013,10 +3013,10 @@
         <v>451</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3656,10 +3656,10 @@
         <v>1.2</v>
       </c>
       <c r="H27" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3668,16 +3668,16 @@
         <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O27" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P27" t="n">
         <v>1.29</v>
@@ -3686,10 +3686,10 @@
         <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T27" t="n">
         <v>7.5</v>
@@ -3713,10 +3713,10 @@
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
         <v>81</v>
@@ -3728,7 +3728,7 @@
         <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG27" t="n">
         <v>41</v>
@@ -5934,10 +5934,10 @@
         <v>2.25</v>
       </c>
       <c r="N47" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P47" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.14</v>
@@ -811,13 +811,13 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -829,32 +829,32 @@
         <v>4.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>81</v>
       </c>
       <c r="AI3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>81</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -892,10 +892,10 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.13</v>
@@ -904,22 +904,22 @@
         <v>6</v>
       </c>
       <c r="L4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.57</v>
       </c>
-      <c r="M4" t="n">
+      <c r="Q4" t="n">
         <v>2.25</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>2.2</v>
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.75</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1170,7 +1170,7 @@
         <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
         <v>11</v>
@@ -1188,7 +1188,7 @@
         <v>51</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1204,13 +1204,13 @@
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1632,16 +1632,16 @@
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1751,7 +1751,7 @@
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1861,19 +1861,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
@@ -1882,16 +1882,16 @@
         <v>2.5</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
         <v>2.1</v>
@@ -1900,19 +1900,19 @@
         <v>1.67</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
         <v>41</v>
@@ -1929,21 +1929,23 @@
       <c r="AC12" t="n">
         <v>67</v>
       </c>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>1250</v>
+      </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2246,10 +2248,10 @@
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P15" t="n">
         <v>1.33</v>
@@ -3531,19 +3533,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
         <v>1.22</v>
@@ -3564,37 +3566,37 @@
         <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W26" t="n">
+        <v>41</v>
+      </c>
+      <c r="X26" t="n">
         <v>26</v>
       </c>
-      <c r="X26" t="n">
-        <v>21</v>
-      </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>41</v>
@@ -3603,22 +3605,22 @@
         <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -3653,13 +3655,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3668,16 +3670,16 @@
         <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O27" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.29</v>
@@ -3686,10 +3688,10 @@
         <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
         <v>7.5</v>
@@ -3713,10 +3715,10 @@
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
         <v>81</v>
@@ -3728,10 +3730,10 @@
         <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="n">
         <v>201</v>
@@ -5913,13 +5915,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
         <v>1.11</v>
@@ -5928,10 +5930,10 @@
         <v>6.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N47" t="n">
         <v>2.88</v>
@@ -5940,10 +5942,10 @@
         <v>1.4</v>
       </c>
       <c r="P47" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R47" t="n">
         <v>2.25</v>
@@ -5958,19 +5960,19 @@
         <v>9.5</v>
       </c>
       <c r="V47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y47" t="n">
         <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
@@ -5983,10 +5985,10 @@
       </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG47" t="n">
         <v>13</v>
@@ -6014,7 +6016,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6042,10 +6044,10 @@
         <v>3.8</v>
       </c>
       <c r="J48" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.53</v>
@@ -910,16 +910,16 @@
         <v>2.38</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>2.2</v>
@@ -928,19 +928,19 @@
         <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V4" t="n">
         <v>10</v>
       </c>
-      <c r="V4" t="n">
-        <v>11</v>
-      </c>
       <c r="W4" t="n">
+        <v>21</v>
+      </c>
+      <c r="X4" t="n">
         <v>23</v>
-      </c>
-      <c r="X4" t="n">
-        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
@@ -961,7 +961,7 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -970,13 +970,13 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1182,7 +1182,7 @@
         <v>29</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>101</v>
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1222,7 +1222,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WE5TT27K</t>
+          <t>WQHdJMet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1232,119 +1232,117 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Anapolis</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA7" t="n">
         <v>6.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1250</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WhhQYuE6</t>
+          <t>jqra4gV6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1354,119 +1352,119 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Confianca</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="N8" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="T8" t="n">
-        <v>11</v>
+        <v>6.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="V8" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="W8" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>6</v>
-      </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dYAwzh2k</t>
+          <t>WE5TT27K</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1476,119 +1474,119 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O9" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="T9" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB9" t="n">
         <v>21</v>
       </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>151</v>
+        <v>1250</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
         <v>19</v>
       </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KCusfDgL</t>
+          <t>WhhQYuE6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1598,119 +1596,119 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T10" t="n">
         <v>11</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6.5</v>
-      </c>
       <c r="U10" t="n">
+        <v>23</v>
+      </c>
+      <c r="V10" t="n">
+        <v>17</v>
+      </c>
+      <c r="W10" t="n">
+        <v>51</v>
+      </c>
+      <c r="X10" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>7</v>
       </c>
-      <c r="V10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD10" t="n">
         <v>351</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UNQbszAF</t>
+          <t>231I1ZRi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1720,119 +1718,107 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>BULGARIA - VTORA LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Botev Plovdiv II</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
+        <v>1.52</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.8</v>
-      </c>
+        <v>2.47</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>24</v>
+      </c>
+      <c r="V11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>65</v>
+      </c>
+      <c r="X11" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF11" t="n">
         <v>6.5</v>
       </c>
-      <c r="U11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>19</v>
-      </c>
-      <c r="X11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>URbOGfNb</t>
+          <t>dYAwzh2k</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1842,119 +1828,119 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
+        <v>12</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>21</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
         <v>6.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7</v>
-      </c>
-      <c r="U12" t="n">
-        <v>13</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="AB12" t="n">
         <v>12</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AC12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
         <v>34</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>29</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rXg4BaoJ</t>
+          <t>KCusfDgL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1964,68 +1950,68 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -2037,31 +2023,31 @@
         <v>13</v>
       </c>
       <c r="Y13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
         <v>34</v>
       </c>
-      <c r="Z13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>29</v>
-      </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>67</v>
@@ -2076,7 +2062,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0l0CxQPi</t>
+          <t>UNQbszAF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2086,119 +2072,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T14" t="n">
         <v>6.5</v>
       </c>
-      <c r="N14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T14" t="n">
-        <v>13</v>
-      </c>
       <c r="U14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9</v>
+      </c>
+      <c r="W14" t="n">
         <v>15</v>
       </c>
-      <c r="V14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>21</v>
-      </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
         <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pKx2jAM7</t>
+          <t>URbOGfNb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2208,119 +2194,119 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
       </c>
       <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>34</v>
+      </c>
+      <c r="X15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z15" t="n">
         <v>6.5</v>
       </c>
-      <c r="V15" t="n">
-        <v>9</v>
-      </c>
-      <c r="W15" t="n">
-        <v>9</v>
-      </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12</v>
-      </c>
       <c r="AA15" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
         <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>1250</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fagtO8e3</t>
+          <t>rXg4BaoJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2330,103 +2316,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.25</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+        <v>6.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.25</v>
+      </c>
       <c r="N16" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
       <c r="T16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE16" t="n">
         <v>13</v>
       </c>
-      <c r="U16" t="n">
-        <v>22</v>
-      </c>
-      <c r="V16" t="n">
-        <v>12</v>
-      </c>
-      <c r="W16" t="n">
-        <v>50</v>
-      </c>
-      <c r="X16" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AF16" t="n">
-        <v>7.6</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.75</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GlzFBsJr</t>
+          <t>0l0CxQPi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2436,56 +2438,56 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Akranes</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hafnarfjordur</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.82</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>9.75</v>
+        <v>21</v>
       </c>
       <c r="L17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M17" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O17" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>1.4</v>
@@ -2494,61 +2496,61 @@
         <v>2.75</v>
       </c>
       <c r="T17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="U17" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z17" t="n">
         <v>21</v>
       </c>
-      <c r="Z17" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AA17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD17" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x4ON9Lme</t>
+          <t>pKx2jAM7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2558,119 +2560,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="O18" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="P18" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>15.5</v>
+        <v>6.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AH18" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>p6qqH3eL</t>
+          <t>fagtO8e3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2680,119 +2682,103 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4.65</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="O19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.55</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="U19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
         <v>50</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.25</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AD19" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI19" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ll9bhpL5</t>
+          <t>GlzFBsJr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2802,119 +2788,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Akranes</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Hafnarfjordur</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>2.82</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="L20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.4</v>
       </c>
-      <c r="M20" t="n">
+      <c r="S20" t="n">
         <v>2.75</v>
       </c>
-      <c r="N20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.7</v>
-      </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="W20" t="n">
+        <v>37</v>
+      </c>
+      <c r="X20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF20" t="n">
         <v>15</v>
       </c>
-      <c r="X20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>21</v>
-      </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pG27jOkI</t>
+          <t>x4ON9Lme</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2924,119 +2910,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.36</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="U21" t="n">
-        <v>7.5</v>
+        <v>15.5</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE21" t="n">
         <v>19</v>
       </c>
-      <c r="AC21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>10</v>
-      </c>
       <c r="AF21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI21" t="n">
         <v>21</v>
       </c>
-      <c r="AG21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OOdWM2lQ</t>
+          <t>p6qqH3eL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3046,119 +3032,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>21</v>
+        <v>9.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>4.65</v>
       </c>
       <c r="N22" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="O22" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="T22" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="U22" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="V22" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="W22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X22" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>9.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AC22" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AD22" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>8.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>r9w3HtCm</t>
+          <t>ll9bhpL5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3168,119 +3154,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.53</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="P23" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>2.63</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
+        <v>8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9</v>
+      </c>
+      <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
         <v>34</v>
       </c>
-      <c r="V23" t="n">
-        <v>17</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH23" t="n">
         <v>51</v>
       </c>
-      <c r="X23" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>13</v>
-      </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MyUeBnq2</t>
+          <t>pG27jOkI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3290,56 +3276,56 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.44</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Q24" t="n">
         <v>2.63</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.5</v>
       </c>
       <c r="R24" t="n">
         <v>2</v>
@@ -3351,28 +3337,28 @@
         <v>6</v>
       </c>
       <c r="U24" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
         <v>34</v>
       </c>
       <c r="Z24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA24" t="n">
         <v>7</v>
       </c>
-      <c r="AA24" t="n">
-        <v>6</v>
-      </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
         <v>67</v>
@@ -3381,19 +3367,19 @@
         <v>451</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="n">
         <v>41</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>34</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3402,7 +3388,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hfarF31C</t>
+          <t>OOdWM2lQ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3412,99 +3398,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K25" t="n">
+        <v>21</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P25" t="n">
         <v>1.22</v>
       </c>
-      <c r="H25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T25" t="n">
+        <v>21</v>
+      </c>
+      <c r="U25" t="n">
+        <v>34</v>
+      </c>
+      <c r="V25" t="n">
+        <v>17</v>
+      </c>
+      <c r="W25" t="n">
+        <v>51</v>
+      </c>
+      <c r="X25" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
         <v>9.5</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="V25" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>10</v>
-      </c>
       <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>19</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fwfBxHAr</t>
+          <t>r9w3HtCm</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3514,98 +3520,98 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Binacional</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K26" t="n">
+        <v>23</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O26" t="n">
         <v>3.4</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K26" t="n">
-        <v>13</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
       <c r="P26" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="T26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="U26" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X26" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z26" t="n">
         <v>26</v>
       </c>
-      <c r="Y26" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>12</v>
-      </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AB26" t="n">
         <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
@@ -3614,19 +3620,19 @@
         <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GhrKzeue</t>
+          <t>MyUeBnq2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3636,119 +3642,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Alianza Huanuco</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.22</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="N27" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.57</v>
       </c>
-      <c r="O27" t="n">
-        <v>2.35</v>
-      </c>
       <c r="P27" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
       </c>
       <c r="Z27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" t="n">
         <v>13</v>
       </c>
-      <c r="AA27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
+      <c r="AH27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="n">
         <v>34</v>
       </c>
-      <c r="AH27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>101</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4fGa01Z1</t>
+          <t>hfarF31C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3758,119 +3764,99 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="H28" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z28" t="n">
         <v>17</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T28" t="n">
-        <v>8</v>
-      </c>
-      <c r="U28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
         <v>19</v>
       </c>
       <c r="AC28" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AH28" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AI28" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>l2hfM7cT</t>
+          <t>hryLas8C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3880,119 +3866,113 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Guairena</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11</v>
-      </c>
+        <v>3.35</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2.07</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="T29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9</v>
+      </c>
+      <c r="V29" t="n">
         <v>10</v>
       </c>
-      <c r="U29" t="n">
-        <v>17</v>
-      </c>
-      <c r="V29" t="n">
-        <v>11</v>
-      </c>
       <c r="W29" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG29" t="n">
         <v>13</v>
       </c>
-      <c r="AC29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6wPKxTsA</t>
+          <t>YiqTcLxP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4002,119 +3982,115 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Encarnacion FC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.55</v>
+        <v>2.92</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K30" t="n">
-        <v>13</v>
-      </c>
+        <v>2.37</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="N30" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="T30" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="U30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="W30" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AD30" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2cSEViY8</t>
+          <t>fwfBxHAr</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4124,32 +4100,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Binacional</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4158,85 +4134,85 @@
         <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="U31" t="n">
+        <v>19</v>
+      </c>
+      <c r="V31" t="n">
         <v>12</v>
       </c>
-      <c r="V31" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
         <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI31" t="n">
         <v>15</v>
       </c>
-      <c r="AG31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lfWvFNEi</t>
+          <t>GhrKzeue</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4246,59 +4222,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RUSSIA - PREMIER LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lokomotiv Moscow</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CSKA Moscow</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+          <t>Alianza Huanuco</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6</v>
+      </c>
+      <c r="V32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lbOhK4gT</t>
+          <t>4fGa01Z1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4308,59 +4344,119 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RUSSIA - FNL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kamaz</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Alania Vladikavkaz</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K33" t="n">
+        <v>17</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T33" t="n">
+        <v>8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bDos25Xp</t>
+          <t>l2hfM7cT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4370,59 +4466,119 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RUSSIA - FNL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chernomorets Novorossijsk</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>11</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>10</v>
+      </c>
+      <c r="U34" t="n">
+        <v>17</v>
+      </c>
+      <c r="V34" t="n">
+        <v>11</v>
+      </c>
+      <c r="W34" t="n">
+        <v>34</v>
+      </c>
+      <c r="X34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ldaHiLEa</t>
+          <t>6wPKxTsA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4432,119 +4588,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="H35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K35" t="n">
-        <v>34</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="R35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>9</v>
+      </c>
+      <c r="U35" t="n">
         <v>13</v>
       </c>
-      <c r="N35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="O35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>6</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>29</v>
-      </c>
-      <c r="U35" t="n">
-        <v>29</v>
-      </c>
       <c r="V35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W35" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X35" t="n">
         <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF35" t="n">
         <v>13</v>
       </c>
-      <c r="AB35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AG35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI35" t="n">
         <v>21</v>
       </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ35" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pA1TvSVF</t>
+          <t>2cSEViY8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4554,50 +4710,50 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4612,31 +4768,31 @@
         <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="U36" t="n">
+        <v>12</v>
+      </c>
+      <c r="V36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>23</v>
+      </c>
+      <c r="X36" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="n">
         <v>15</v>
-      </c>
-      <c r="V36" t="n">
-        <v>11</v>
-      </c>
-      <c r="W36" t="n">
-        <v>29</v>
-      </c>
-      <c r="X36" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>13</v>
       </c>
       <c r="AC36" t="n">
         <v>41</v>
@@ -4645,28 +4801,28 @@
         <v>201</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
         <v>21</v>
       </c>
-      <c r="AI36" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bXXHG0Uj</t>
+          <t>lfWvFNEi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4676,119 +4832,59 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>RUSSIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Lokomotiv Moscow</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Goteborg</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T37" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>15</v>
-      </c>
-      <c r="V37" t="n">
-        <v>11</v>
-      </c>
-      <c r="W37" t="n">
-        <v>29</v>
-      </c>
-      <c r="X37" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>29</v>
-      </c>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>COcxyVF5</t>
+          <t>lbOhK4gT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4798,119 +4894,59 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>RUSSIA - FNL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Kamaz</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K38" t="n">
-        <v>15</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>9</v>
-      </c>
-      <c r="V38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W38" t="n">
-        <v>13</v>
-      </c>
-      <c r="X38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>34</v>
-      </c>
+          <t>Alania Vladikavkaz</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8jioZ8pI</t>
+          <t>bDos25Xp</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4920,119 +4956,59 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>RUSSIA - FNL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K39" t="n">
-        <v>17</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T39" t="n">
-        <v>11</v>
-      </c>
-      <c r="U39" t="n">
-        <v>13</v>
-      </c>
-      <c r="V39" t="n">
-        <v>9</v>
-      </c>
-      <c r="W39" t="n">
-        <v>21</v>
-      </c>
-      <c r="X39" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>23</v>
-      </c>
+          <t>Chernomorets Novorossijsk</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hEs3MV0C</t>
+          <t>ldaHiLEa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5042,119 +5018,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="J40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K40" t="n">
+        <v>34</v>
+      </c>
+      <c r="L40" t="n">
         <v>1.04</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>13</v>
       </c>
-      <c r="L40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N40" t="n">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="O40" t="n">
-        <v>1.98</v>
+        <v>4.5</v>
       </c>
       <c r="P40" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="S40" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="U40" t="n">
+        <v>29</v>
+      </c>
+      <c r="V40" t="n">
+        <v>15</v>
+      </c>
+      <c r="W40" t="n">
+        <v>41</v>
+      </c>
+      <c r="X40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB40" t="n">
         <v>11</v>
       </c>
-      <c r="V40" t="n">
-        <v>9</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="AC40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF40" t="n">
         <v>21</v>
-      </c>
-      <c r="X40" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>17</v>
       </c>
       <c r="AG40" t="n">
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ40" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vTlKQiRq</t>
+          <t>pA1TvSVF</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5164,38 +5140,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
@@ -5204,10 +5180,10 @@
         <v>3.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -5216,67 +5192,67 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S41" t="n">
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W41" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD41" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE41" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI41" t="n">
         <v>19</v>
       </c>
-      <c r="AG41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4IfMKUSb</t>
+          <t>bXXHG0Uj</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5291,114 +5267,114 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J42" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M42" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="O42" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="P42" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
+        <v>15</v>
+      </c>
+      <c r="V42" t="n">
         <v>11</v>
       </c>
-      <c r="V42" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W42" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE42" t="n">
         <v>8.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KO3bt4DD</t>
+          <t>COcxyVF5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5408,119 +5384,119 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>10.25</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L43" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="M43" t="n">
-        <v>6.4</v>
+        <v>4.33</v>
       </c>
       <c r="N43" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="O43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3.4</v>
       </c>
-      <c r="P43" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4.55</v>
-      </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="U43" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V43" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="W43" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="X43" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AA43" t="n">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AE43" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AF43" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AG43" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>nB5jrQr1</t>
+          <t>8jioZ8pI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5530,119 +5506,119 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="L44" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="M44" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="O44" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="P44" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T44" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U44" t="n">
+        <v>13</v>
+      </c>
+      <c r="V44" t="n">
+        <v>9</v>
+      </c>
+      <c r="W44" t="n">
+        <v>21</v>
+      </c>
+      <c r="X44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z44" t="n">
         <v>17</v>
       </c>
-      <c r="V44" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="W44" t="n">
-        <v>37</v>
-      </c>
-      <c r="X44" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AA44" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG44" t="n">
         <v>12</v>
       </c>
-      <c r="AC44" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AH44" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AJ44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>zXoo475K</t>
+          <t>hEs3MV0C</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5652,119 +5628,119 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="H45" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>7.7</v>
+        <v>13</v>
       </c>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="N45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O45" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="P45" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T45" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="U45" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="V45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="X45" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AD45" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AE45" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF45" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AG45" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>z9ynd50T</t>
+          <t>vTlKQiRq</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5774,119 +5750,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O46" t="n">
         <v>1.85</v>
       </c>
-      <c r="H46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K46" t="n">
-        <v>9</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="P46" t="n">
         <v>1.36</v>
       </c>
-      <c r="M46" t="n">
+      <c r="Q46" t="n">
         <v>3</v>
       </c>
-      <c r="N46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U46" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="V46" t="n">
         <v>9</v>
       </c>
       <c r="W46" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X46" t="n">
         <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA46" t="n">
         <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>51</v>
       </c>
       <c r="AD46" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
         <v>41</v>
       </c>
       <c r="AI46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vsrwbRVG</t>
+          <t>4IfMKUSb</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5896,231 +5872,957 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>2.3</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K47" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.62</v>
       </c>
-      <c r="M47" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P47" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T47" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="U47" t="n">
+        <v>11</v>
+      </c>
+      <c r="V47" t="n">
         <v>9.5</v>
       </c>
-      <c r="V47" t="n">
-        <v>11</v>
-      </c>
       <c r="W47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X47" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA47" t="n">
         <v>6</v>
       </c>
-      <c r="AA47" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC47" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD47" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>301</v>
+      </c>
       <c r="AE47" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH47" t="n">
         <v>34</v>
       </c>
       <c r="AI47" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>KO3bt4DD</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W48" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>300</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>nB5jrQr1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T49" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="U49" t="n">
+        <v>17</v>
+      </c>
+      <c r="V49" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W49" t="n">
+        <v>37</v>
+      </c>
+      <c r="X49" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>zXoo475K</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K50" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U50" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V50" t="n">
+        <v>8</v>
+      </c>
+      <c r="W50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>z9ynd50T</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>9</v>
+      </c>
+      <c r="W51" t="n">
+        <v>15</v>
+      </c>
+      <c r="X51" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vsrwbRVG</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>11</v>
+      </c>
+      <c r="W52" t="n">
+        <v>23</v>
+      </c>
+      <c r="X52" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>pK44EnGc</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>19/05/2025</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>20:15</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Boston River</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>CA Cerro</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G53" t="n">
         <v>1.91</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H53" t="n">
         <v>3.3</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I53" t="n">
         <v>3.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J53" t="n">
         <v>1.1</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K53" t="n">
         <v>7</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L53" t="n">
         <v>1.44</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M53" t="n">
         <v>2.63</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N53" t="n">
         <v>2.4</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O53" t="n">
         <v>1.53</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P53" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q53" t="n">
         <v>2.38</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R53" t="n">
         <v>2.2</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S53" t="n">
         <v>1.62</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T53" t="n">
         <v>5.5</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U53" t="n">
         <v>8</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V53" t="n">
         <v>9.5</v>
       </c>
-      <c r="W48" t="n">
+      <c r="W53" t="n">
         <v>17</v>
       </c>
-      <c r="X48" t="n">
+      <c r="X53" t="n">
         <v>19</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y53" t="n">
         <v>41</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="Z53" t="n">
         <v>7</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AA53" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AB53" t="n">
         <v>21</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AC53" t="n">
         <v>81</v>
       </c>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="n">
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AF53" t="n">
         <v>19</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AG53" t="n">
         <v>15</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AH53" t="n">
         <v>41</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AI53" t="n">
         <v>41</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AJ53" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>IN1lTouh</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>URUGUAY - SEGUNDA DIVISION</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Maldonado</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Rentistas</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>28</v>
+      </c>
+      <c r="X54" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
